--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Stories" sheetId="3" r:id="rId6"/>
-    <sheet name="Tests" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Sprint5" sheetId="10" r:id="rId13"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint5" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Initials</t>
   </si>
@@ -49,10 +51,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>hchaturv@stevens.edu</t>
     </r>
@@ -72,10 +75,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>sgrozny@stevens.edu</t>
     </r>
@@ -95,10 +99,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>lzhang40@stevens.edu</t>
     </r>
@@ -208,7 +213,6 @@
   <si>
     <t>Expected Output</t>
   </si>
-  <si/>
   <si>
     <t>Date</t>
   </si>
@@ -234,57 +238,6 @@
     <t>hm</t>
   </si>
   <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T01.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T01.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>AT03, AT04</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>gh(at)</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -301,18 +254,92 @@
   </si>
   <si>
     <t>Forgetting to commit changes to GitHub</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Two Identical Indviduals</t>
+  </si>
+  <si>
+    <t>AT04</t>
+  </si>
+  <si>
+    <t>AT 01</t>
+  </si>
+  <si>
+    <t>AT 02</t>
+  </si>
+  <si>
+    <t>AT 03</t>
+  </si>
+  <si>
+    <t>AT 04</t>
+  </si>
+  <si>
+    <t>AT 05</t>
+  </si>
+  <si>
+    <t>AT 06</t>
+  </si>
+  <si>
+    <t>AT 07</t>
+  </si>
+  <si>
+    <t>AT 08</t>
+  </si>
+  <si>
+    <t>AT 09</t>
+  </si>
+  <si>
+    <t>More than 15 Kids</t>
+  </si>
+  <si>
+    <t>GED File, Fam ID @F6@ has 16 kids.</t>
+  </si>
+  <si>
+    <t>Only Fam ID @F6@ is alerted and lists all childrens names</t>
+  </si>
+  <si>
+    <t>Done/Worked/Passed</t>
+  </si>
+  <si>
+    <t>Two Idenitcal Indviduals</t>
+  </si>
+  <si>
+    <t>Copied the information from indvidual 2 and 12 into indvidual 16 and 17</t>
+  </si>
+  <si>
+    <t>Alerts to each set of copied indviduals and prints their information</t>
+  </si>
+  <si>
+    <t>More Than 15 Kids</t>
+  </si>
+  <si>
+    <t>Two Identical Indvidauls</t>
+  </si>
+  <si>
+    <t>AT05</t>
+  </si>
+  <si>
+    <t>Make sure two people with the same name and birthdate don't appear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -321,49 +348,34 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -374,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -436,135 +448,89 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,30 +539,86 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff888888"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ff4a7ebb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF888888"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -605,23 +627,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0741875"/>
-          <c:y val="0.0567539"/>
-          <c:w val="0.921853"/>
-          <c:h val="0.838879"/>
+          <c:x val="7.4187500000000003E-2"/>
+          <c:y val="5.6753900000000003E-2"/>
+          <c:w val="0.92185300000000003"/>
+          <c:h val="0.83887900000000004"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -634,9 +657,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -663,107 +683,80 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>Burndown!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9/22</c:v>
+                  <c:v>40604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10/5</c:v>
+                  <c:v>40625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10/19</c:v>
+                  <c:v>40639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11/2</c:v>
+                  <c:v>40653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11/16</c:v>
+                  <c:v>40667</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>11/30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.000000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93197056"/>
+        <c:axId val="93198208"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="0"/>
+      <c:dateAx>
+        <c:axId val="93197056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -781,7 +774,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -789,16 +782,17 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="93198208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="93198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -841,9 +835,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="93197056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -862,6 +857,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -876,11 +872,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -894,18 +895,18 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>129518</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1002012" y="1478011"/>
-        <a:ext cx="4330017" cy="2461507"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -915,7 +916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1107,7 +1108,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1116,7 +1117,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1125,7 +1126,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1134,7 +1135,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1143,7 +1144,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1152,7 +1153,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1264,8 +1265,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1273,14 +1274,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1299,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1308,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1335,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1413,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +1466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +1492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +1544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,9 +1557,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1574,7 +1581,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1593,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1619,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1645,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1671,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1697,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1723,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1749,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1775,7 +1782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1801,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1827,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,9 +1847,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1855,7 +1868,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1874,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1904,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1930,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1956,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1982,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2008,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2034,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2060,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2086,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2112,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,52 +2138,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.09765625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2178,61 +2196,61 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2240,7 +2258,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2248,7 +2266,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2256,19 +2274,19 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2278,12 +2296,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2291,59 +2309,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="28" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="28" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2355,7 +2363,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2367,7 +2375,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2379,7 +2387,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2391,7 +2399,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2403,7 +2411,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2415,7 +2423,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2427,7 +2435,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2439,7 +2447,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2453,7 +2461,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2461,78 +2469,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.09765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s" s="9">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s" s="9">
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5"/>
@@ -2540,21 +2550,21 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="10"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5"/>
@@ -2562,58 +2572,1178 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="26">
+        <v>40604</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5">
+        <v>20</v>
+      </c>
+      <c r="K6" s="26">
+        <v>40604</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.09765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="11" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>15</v>
+      </c>
+      <c r="IV6"/>
+    </row>
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="15" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.09765625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="18" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>40590</v>
+      </c>
+      <c r="B2" s="6">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>40604</v>
+      </c>
+      <c r="B3" s="6">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B2-B3</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="19">
+        <f>(D3-D2)/E3*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>40625</v>
+      </c>
+      <c r="B4" s="6">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B3-B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="e">
+        <f>(D4-D3)/E4*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>40639</v>
+      </c>
+      <c r="B5" s="6">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <f>B4-B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="e">
+        <f>(D5-D4)/E5*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>40653</v>
+      </c>
+      <c r="B6" s="6">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <f>B5-B6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="e">
+        <f>(D6-D5)/E6*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>40667</v>
+      </c>
+      <c r="B7" s="6">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B6-B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="e">
+        <f>(D7-D6)/E7*60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="A6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="8" style="20" customWidth="1"/>
+    <col min="11" max="256" width="8.09765625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6">
+        <v>150</v>
+      </c>
+      <c r="G2" s="6">
+        <v>60</v>
+      </c>
+      <c r="H2" s="6">
+        <v>120</v>
+      </c>
+      <c r="I2" s="6">
+        <v>90</v>
+      </c>
+      <c r="J2" s="10">
+        <v>40444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>22</v>
+      </c>
+      <c r="I6" s="5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="256" width="8.09765625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2624,10 +3754,8 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2638,10 +3766,8 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2652,10 +3778,8 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2666,10 +3790,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2680,916 +3802,60 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="11" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="11" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s" s="3">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" ht="26" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="26" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s" s="13">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="26" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" t="s" s="13">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="18" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="21" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="10">
-        <v>40442</v>
-      </c>
-      <c r="B2" s="6">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="10">
-        <v>40455</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
-        <f>B2-B3</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>250</v>
-      </c>
-      <c r="E3" s="6">
-        <v>120</v>
-      </c>
-      <c r="F3" s="22">
-        <f>(D3-D2)/E3*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="10">
-        <v>40469</v>
-      </c>
-      <c r="B4" s="6">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6">
-        <f>B3-B4</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>400</v>
-      </c>
-      <c r="E4" s="6">
-        <v>90</v>
-      </c>
-      <c r="F4" s="22">
-        <f>(D4-D3)/E4*60</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="10">
-        <v>40483</v>
-      </c>
-      <c r="B5" s="6">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <f>B4-B5</f>
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>800</v>
-      </c>
-      <c r="E5" s="6">
-        <v>150</v>
-      </c>
-      <c r="F5" s="22">
-        <f>(D5-D4)/E5*60</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="10">
-        <v>40497</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <f>B5-B6</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>900</v>
-      </c>
-      <c r="E6" s="6">
-        <v>80</v>
-      </c>
-      <c r="F6" s="22">
-        <f>(D6-D5)/E6*60</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="10">
-        <v>40511</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f>B6-B7</f>
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>60</v>
-      </c>
-      <c r="F7" s="22">
-        <f>(D7-D6)/E7*60</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="5.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="5" style="23" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8" style="23" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6">
-        <v>150</v>
-      </c>
-      <c r="G2" s="6">
-        <v>60</v>
-      </c>
-      <c r="H2" s="6">
-        <v>120</v>
-      </c>
-      <c r="I2" s="6">
-        <v>90</v>
-      </c>
-      <c r="J2" s="10">
-        <v>40444</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="29" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="F8" s="6">
-        <v>200</v>
-      </c>
-      <c r="G8" s="6">
-        <v>120</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>73</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>76</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" ht="26" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>78</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s" s="12">
-        <v>81</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="13">
-        <v>82</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s" s="13">
-        <v>85</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="25" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3601,7 +3867,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3613,7 +3879,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3625,7 +3891,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3637,7 +3903,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3649,7 +3915,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3661,7 +3927,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3673,7 +3939,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3685,7 +3951,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3699,67 +3965,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="26" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3771,7 +4027,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3783,7 +4039,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3795,7 +4051,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3807,7 +4063,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3819,7 +4075,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3831,7 +4087,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3843,7 +4099,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3855,7 +4111,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3869,177 +4125,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="27" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Stories" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests" sheetId="4" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
-    <sheet name="Sprint5" sheetId="10" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId4"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
+    <sheet name="Stories" sheetId="3" r:id="rId6"/>
+    <sheet name="Tests" sheetId="4" r:id="rId7"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
+    <sheet name="Sprint5" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Initials</t>
   </si>
@@ -51,11 +49,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
       </rPr>
       <t>hchaturv@stevens.edu</t>
     </r>
@@ -75,11 +72,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
       </rPr>
       <t>sgrozny@stevens.edu</t>
     </r>
@@ -99,11 +95,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
       </rPr>
       <t>lzhang40@stevens.edu</t>
     </r>
@@ -181,6 +176,24 @@
     <t>More than 15 kids</t>
   </si>
   <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Two Identical Indviduals</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
     <t>Story Description</t>
   </si>
   <si>
@@ -196,13 +209,22 @@
     <t>Make sure each and every individual with birth date</t>
   </si>
   <si>
+    <t>AT03</t>
+  </si>
+  <si>
     <t>Make sure a family contains less than 15 kids</t>
   </si>
   <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
+    <t>AT04</t>
+  </si>
+  <si>
+    <t>Two Identical Indvidauls</t>
+  </si>
+  <si>
+    <t>Make sure two people with the same name and birthdate don't appear</t>
+  </si>
+  <si>
+    <t>AT05</t>
   </si>
   <si>
     <t>AT ID</t>
@@ -214,6 +236,64 @@
     <t>Expected Output</t>
   </si>
   <si>
+    <t>AT 01</t>
+  </si>
+  <si>
+    <t>AT 02</t>
+  </si>
+  <si>
+    <t>AT 03</t>
+  </si>
+  <si>
+    <t>Missing birthdate</t>
+  </si>
+  <si>
+    <t>GED file, Individual Id,Bdays</t>
+  </si>
+  <si>
+    <t>All individuals with birthdates</t>
+  </si>
+  <si>
+    <t>AT 04</t>
+  </si>
+  <si>
+    <t>More than 15 Kids</t>
+  </si>
+  <si>
+    <t>GED File, Fam ID @F6@ has 16 kids.</t>
+  </si>
+  <si>
+    <t>Only Fam ID @F6@ is alerted and lists all childrens names</t>
+  </si>
+  <si>
+    <t>Done/Worked/Passed</t>
+  </si>
+  <si>
+    <t>AT 05</t>
+  </si>
+  <si>
+    <t>Two Idenitcal Indviduals</t>
+  </si>
+  <si>
+    <t>Copied the information from indvidual 2 and 12 into indvidual 16 and 17</t>
+  </si>
+  <si>
+    <t>Alerts to each set of copied indviduals and prints their information</t>
+  </si>
+  <si>
+    <t>AT 06</t>
+  </si>
+  <si>
+    <t>AT 07</t>
+  </si>
+  <si>
+    <t>AT 08</t>
+  </si>
+  <si>
+    <t>AT 09</t>
+  </si>
+  <si/>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -238,6 +318,9 @@
     <t>hm</t>
   </si>
   <si>
+    <t>More Than 15 Kids</t>
+  </si>
+  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -254,92 +337,18 @@
   </si>
   <si>
     <t>Forgetting to commit changes to GitHub</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Two Identical Indviduals</t>
-  </si>
-  <si>
-    <t>AT04</t>
-  </si>
-  <si>
-    <t>AT 01</t>
-  </si>
-  <si>
-    <t>AT 02</t>
-  </si>
-  <si>
-    <t>AT 03</t>
-  </si>
-  <si>
-    <t>AT 04</t>
-  </si>
-  <si>
-    <t>AT 05</t>
-  </si>
-  <si>
-    <t>AT 06</t>
-  </si>
-  <si>
-    <t>AT 07</t>
-  </si>
-  <si>
-    <t>AT 08</t>
-  </si>
-  <si>
-    <t>AT 09</t>
-  </si>
-  <si>
-    <t>More than 15 Kids</t>
-  </si>
-  <si>
-    <t>GED File, Fam ID @F6@ has 16 kids.</t>
-  </si>
-  <si>
-    <t>Only Fam ID @F6@ is alerted and lists all childrens names</t>
-  </si>
-  <si>
-    <t>Done/Worked/Passed</t>
-  </si>
-  <si>
-    <t>Two Idenitcal Indviduals</t>
-  </si>
-  <si>
-    <t>Copied the information from indvidual 2 and 12 into indvidual 16 and 17</t>
-  </si>
-  <si>
-    <t>Alerts to each set of copied indviduals and prints their information</t>
-  </si>
-  <si>
-    <t>More Than 15 Kids</t>
-  </si>
-  <si>
-    <t>Two Identical Indvidauls</t>
-  </si>
-  <si>
-    <t>AT05</t>
-  </si>
-  <si>
-    <t>Make sure two people with the same name and birthdate don't appear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d"/>
+    <numFmt numFmtId="60" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -348,34 +357,49 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -448,89 +472,167 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="60" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,86 +641,30 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF888888"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FF4A7EBB"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff888888"/>
+      <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="ff4a7ebb"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -627,24 +673,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0"/>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4187500000000003E-2"/>
-          <c:y val="5.6753900000000003E-2"/>
-          <c:w val="0.92185300000000003"/>
-          <c:h val="0.83887900000000004"/>
+          <c:x val="0.0977812"/>
+          <c:y val="0.0582252"/>
+          <c:w val="0.89836"/>
+          <c:h val="0.835026"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -657,6 +702,9 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -668,7 +716,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4F81BD"/>
@@ -683,80 +731,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Burndown!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>40604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40639</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40653</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3/3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3/24</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4/7</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4/21</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5/5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v/>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>'Burndown'!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="93197056"/>
-        <c:axId val="93198208"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="93197056"/>
+      <c:catAx>
+        <c:axId val="0"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -774,7 +846,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -782,17 +854,16 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93198208"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="93198208"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +898,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -835,14 +906,13 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93197056"/>
+        <c:crossAx val="0"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="5"/>
+        <c:majorUnit val="7.5"/>
+        <c:minorUnit val="3.75"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -857,7 +927,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -872,41 +941,36 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189212</xdr:colOff>
+      <xdr:colOff>75977</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182611</xdr:rowOff>
+      <xdr:rowOff>182538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>277428</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>844085</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129518</xdr:rowOff>
+      <xdr:rowOff>68511</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="888777" y="1485558"/>
+        <a:ext cx="4443251" cy="2399304"/>
       </xdr:xfrm>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -916,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1108,7 +1172,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1117,7 +1181,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1126,7 +1190,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1135,7 +1199,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1144,7 +1208,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1153,7 +1217,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1265,8 +1329,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1274,14 +1338,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1300,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1372,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1336,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1544,7 +1608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,15 +1621,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1581,7 +1639,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1600,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,7 +1736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,7 +1788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,7 +1814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,7 +1840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1808,7 +1866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1834,7 +1892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1847,15 +1905,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1868,7 +1920,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1887,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2138,57 +2190,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.09765625" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17.1" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2196,61 +2243,61 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2258,7 +2305,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2266,7 +2313,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2274,19 +2321,19 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2296,12 +2343,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2309,49 +2356,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.09765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="31" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="29.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2363,7 +2420,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2375,7 +2432,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2387,7 +2444,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2399,7 +2456,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2411,7 +2468,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2423,7 +2480,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2435,7 +2492,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2447,7 +2504,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2461,7 +2518,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2469,80 +2526,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.09765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="8" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.8984375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.09765625" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" t="s" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s" s="6">
         <v>15</v>
       </c>
       <c r="F2" s="5"/>
@@ -2550,21 +2605,21 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s" s="6">
         <v>37</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s" s="6">
         <v>15</v>
       </c>
       <c r="F3" s="5"/>
@@ -2572,48 +2627,58 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s" s="6">
         <v>39</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="5">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10">
+        <v>40604</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s" s="6">
         <v>42</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s" s="6">
         <v>40</v>
       </c>
       <c r="G5" s="5">
@@ -2628,26 +2693,26 @@
       <c r="J5" s="5">
         <v>30</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="10">
         <v>40604</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
+      <c r="B6" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>44</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s" s="6">
         <v>40</v>
       </c>
       <c r="G6" s="5">
@@ -2662,15 +2727,15 @@
       <c r="J6" s="5">
         <v>20</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="10">
         <v>40604</v>
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
+      <c r="B7" t="s" s="6">
+        <v>45</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2680,13 +2745,13 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="26"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
+      <c r="B8" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2696,13 +2761,13 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="26"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>69</v>
+      <c r="B9" t="s" s="6">
+        <v>47</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2712,13 +2777,13 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="26"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
+      <c r="B10" t="s" s="6">
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2733,7 +2798,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2741,96 +2806,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="11" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="12" customWidth="1"/>
+    <col min="7" max="256" width="8.125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" t="s" s="13">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="26.1" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>45</v>
+      <c r="B2" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="14">
+        <v>51</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="26.1" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>46</v>
+      <c r="C3" t="s" s="14">
+        <v>52</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="26.1" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B4" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="17.1" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>72</v>
+      <c r="C5" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>56</v>
       </c>
       <c r="E5" s="5">
         <v>20</v>
@@ -2839,18 +2910,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>91</v>
+    <row r="6" ht="17.1" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>59</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -2858,47 +2929,46 @@
       <c r="F6" s="5">
         <v>15</v>
       </c>
-      <c r="IV6"/>
-    </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>49</v>
+    </row>
+    <row r="7" ht="17.1" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
+    <row r="8" ht="17.1" customHeight="1">
+      <c r="A8" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2906,171 +2976,177 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="15" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="16" customWidth="1"/>
+    <col min="7" max="256" width="8.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="45" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="22">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="22">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s" s="22">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s" s="22">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B6" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="23">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="D6" t="s" s="23">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="E6" t="s" s="23">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F6" t="s" s="23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
+      <c r="B7" t="s" s="6">
+        <v>45</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.1" customHeight="1">
+      <c r="A8" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
+      <c r="B8" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="17.1" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>69</v>
+      <c r="B9" t="s" s="6">
+        <v>47</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="17.1" customHeight="1">
+      <c r="A10" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
+      <c r="B10" t="s" s="6">
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3078,46 +3154,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.09765625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="18" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.9375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="17.1" customHeight="1">
+      <c r="A2" s="11">
         <v>40590</v>
       </c>
       <c r="B2" s="6">
@@ -3130,8 +3204,8 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" ht="17.1" customHeight="1">
+      <c r="A3" s="11">
         <v>40604</v>
       </c>
       <c r="B3" s="6">
@@ -3142,18 +3216,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="6">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6">
         <v>40</v>
       </c>
-      <c r="E3" s="6">
-        <v>20</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="F3" s="25">
         <f>(D3-D2)/E3*60</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="4" ht="17.1" customHeight="1">
+      <c r="A4" s="11">
         <v>40625</v>
       </c>
       <c r="B4" s="6">
@@ -3169,13 +3243,12 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="e">
+      <c r="F4" s="25">
         <f>(D4-D3)/E4*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      </c>
+    </row>
+    <row r="5" ht="17.1" customHeight="1">
+      <c r="A5" s="11">
         <v>40639</v>
       </c>
       <c r="B5" s="6">
@@ -3191,13 +3264,12 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="19" t="e">
+      <c r="F5" s="25">
         <f>(D5-D4)/E5*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      </c>
+    </row>
+    <row r="6" ht="17.1" customHeight="1">
+      <c r="A6" s="11">
         <v>40653</v>
       </c>
       <c r="B6" s="6">
@@ -3213,13 +3285,12 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="e">
+      <c r="F6" s="25">
         <f>(D6-D5)/E6*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      </c>
+    </row>
+    <row r="7" ht="17.1" customHeight="1">
+      <c r="A7" s="11">
         <v>40667</v>
       </c>
       <c r="B7" s="6">
@@ -3235,12 +3306,11 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="19" t="e">
+      <c r="F7" s="25">
         <f>(D7-D6)/E7*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3248,7 +3318,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3256,7 +3326,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3266,83 +3336,82 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="A6:G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.09765625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="5.09765625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="8" style="20" customWidth="1"/>
-    <col min="11" max="256" width="8.09765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8" style="26" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="17.1" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s" s="6">
         <v>40</v>
       </c>
       <c r="F2" s="6">
@@ -3357,16 +3426,16 @@
       <c r="I2" s="6">
         <v>90</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>40444</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="17.1" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3375,13 +3444,13 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="17.1" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -3389,20 +3458,20 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="17.1" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s" s="6">
         <v>40</v>
       </c>
       <c r="F5" s="5">
@@ -3421,20 +3490,20 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="6" ht="29.1" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s" s="6">
         <v>40</v>
       </c>
       <c r="F6" s="5">
@@ -3451,10 +3520,10 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3463,22 +3532,22 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" ht="17.1" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3487,23 +3556,23 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" ht="26.1" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
+    <row r="11" ht="17.1" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3511,11 +3580,11 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6"/>
+    <row r="12" ht="26.1" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3523,10 +3592,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17.1" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3535,12 +3604,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17.1" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" t="s" s="13">
+        <v>92</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3549,24 +3618,24 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17.1" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" ht="17.1" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="B16" t="s" s="13">
+        <v>93</v>
+      </c>
+      <c r="C16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3575,12 +3644,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17.1" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="14"/>
+      <c r="B17" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3589,12 +3658,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="26.1" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="B18" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3603,10 +3672,10 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17.1" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3615,12 +3684,12 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17.1" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="B20" t="s" s="13">
+        <v>96</v>
+      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3629,12 +3698,12 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="26.1" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="B21" t="s" s="14">
+        <v>97</v>
+      </c>
+      <c r="C21" s="15"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3645,7 +3714,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3653,49 +3722,59 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.09765625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="28" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="29.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3707,7 +3786,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3719,7 +3798,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3731,7 +3810,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3743,7 +3822,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3755,7 +3834,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3767,7 +3846,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3779,7 +3858,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3791,7 +3870,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3805,7 +3884,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3813,49 +3892,59 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.09765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="29" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="29.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3867,7 +3956,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3879,7 +3968,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3891,7 +3980,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3903,7 +3992,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3915,7 +4004,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3927,7 +4016,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3939,7 +4028,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3951,7 +4040,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3965,7 +4054,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3973,49 +4062,59 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.09765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="30" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="29.1" customHeight="1">
+      <c r="A1" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4027,7 +4126,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17.1" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4039,7 +4138,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.1" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4051,7 +4150,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17.1" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4063,7 +4162,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17.1" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4075,7 +4174,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4087,7 +4186,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4099,7 +4198,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17.1" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4111,7 +4210,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4125,7 +4224,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -686,10 +686,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0977812"/>
-          <c:y val="0.0582252"/>
-          <c:w val="0.89836"/>
-          <c:h val="0.835026"/>
+          <c:x val="0.0976261"/>
+          <c:y val="0.0589623"/>
+          <c:w val="0.898521"/>
+          <c:h val="0.833096"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -949,15 +949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>75977</xdr:colOff>
+      <xdr:colOff>76745</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182538</xdr:rowOff>
+      <xdr:rowOff>182537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>844085</xdr:colOff>
+      <xdr:colOff>844054</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>68511</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -965,8 +965,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="888777" y="1485558"/>
-        <a:ext cx="4443251" cy="2399304"/>
+        <a:off x="889545" y="1485557"/>
+        <a:ext cx="4450310" cy="2369314"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3165,7 +3165,7 @@
     <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="24" customWidth="1"/>
     <col min="4" max="4" width="5.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.9375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="24" customWidth="1"/>
     <col min="7" max="256" width="8.125" style="24" customWidth="1"/>
   </cols>
@@ -3219,11 +3219,11 @@
         <v>53</v>
       </c>
       <c r="E3" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F3" s="25">
         <f>(D3-D2)/E3*60</f>
-        <v>79.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1">

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Stories" sheetId="3" r:id="rId6"/>
-    <sheet name="Tests" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Sprint5" sheetId="10" r:id="rId13"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint5" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
   <si>
     <t>Initials</t>
   </si>
@@ -49,7 +51,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -72,7 +74,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -84,18 +86,12 @@
     <t>sgrozny</t>
   </si>
   <si>
-    <t>lg</t>
-  </si>
-  <si>
     <t>Le</t>
-  </si>
-  <si>
-    <t>Zhanz</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -152,9 +148,6 @@
     <t>US01</t>
   </si>
   <si>
-    <t>Death before birth</t>
-  </si>
-  <si>
     <t>US02</t>
   </si>
   <si>
@@ -197,9 +190,6 @@
     <t>Story Description</t>
   </si>
   <si>
-    <t>Gender on parent</t>
-  </si>
-  <si>
     <t>Make sure the gender on parent is correct</t>
   </si>
   <si>
@@ -292,7 +282,6 @@
   <si>
     <t>AT 09</t>
   </si>
-  <si/>
   <si>
     <t>Date</t>
   </si>
@@ -312,12 +301,6 @@
     <t>Code Velocity</t>
   </si>
   <si>
-    <t>AT01, AT02</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
     <t>More Than 15 Kids</t>
   </si>
   <si>
@@ -337,18 +320,47 @@
   </si>
   <si>
     <t>Forgetting to commit changes to GitHub</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>lz</t>
+  </si>
+  <si>
+    <t>AT01</t>
+  </si>
+  <si>
+    <t>AT02</t>
+  </si>
+  <si>
+    <t>Gender on parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GED file,Individual name, gender </t>
+  </si>
+  <si>
+    <t>GED file, Individual deaddate,family marrieddate</t>
+  </si>
+  <si>
+    <t>output whether anyone have a wedding date after the date of his death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output whether anyone have a wrong gender </t>
+  </si>
+  <si>
+    <t>gender on parents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -357,20 +369,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -381,7 +383,7 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
@@ -390,16 +392,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,139 +524,167 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff888888"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ff4a7ebb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF888888"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -673,23 +693,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0977812"/>
-          <c:y val="0.0582252"/>
-          <c:w val="0.89836"/>
-          <c:h val="0.835026"/>
+          <c:x val="9.7781199999999999E-2"/>
+          <c:y val="5.8225199999999998E-2"/>
+          <c:w val="0.89836000000000005"/>
+          <c:h val="0.83502600000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -702,9 +723,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -731,41 +749,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="6"/>
@@ -784,45 +767,52 @@
               <c:pt idx="4">
                 <c:v>5/5</c:v>
               </c:pt>
-              <c:pt idx="5">
-                <c:v/>
-              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.000000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110441600"/>
+        <c:axId val="110443136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="110441600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +836,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -854,16 +844,18 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="110443136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="110443136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +890,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -906,9 +898,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="110441600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -927,6 +920,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -941,11 +935,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -959,18 +958,18 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>68511</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="888777" y="1485558"/>
-        <a:ext cx="4443251" cy="2399304"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -980,7 +979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1172,7 +1171,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1181,7 +1180,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1190,7 +1189,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1199,7 +1198,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1208,7 +1207,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1217,7 +1216,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1329,8 +1328,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1338,14 +1337,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1364,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1371,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1400,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1608,7 +1607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,9 +1620,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1639,7 +1644,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1658,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1684,7 +1689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1710,7 +1715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1736,7 +1741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1762,7 +1767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1788,7 +1793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1814,7 +1819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,7 +1845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1905,9 +1910,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1920,7 +1931,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1939,7 +1950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +1980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2177,7 +2188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2190,52 +2201,59 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.1328125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2243,61 +2261,61 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="D5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2305,7 +2323,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2313,7 +2331,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2321,19 +2339,19 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="17.1" customHeight="1">
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2343,12 +2361,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2356,59 +2374,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="31" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="31" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2420,7 +2428,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2432,7 +2440,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2444,7 +2452,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2456,7 +2464,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2468,7 +2476,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2480,7 +2488,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2492,7 +2500,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2504,7 +2512,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2518,7 +2526,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2526,126 +2534,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.265625" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.1328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="K1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>35</v>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5">
         <v>15</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="10"/>
+      <c r="H2" s="5">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10">
+        <v>40604</v>
+      </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s" s="6">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="10"/>
+      <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5">
+        <v>61</v>
+      </c>
+      <c r="K3" s="10">
+        <v>40604</v>
+      </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>39</v>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="6">
-        <v>40</v>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="5">
         <v>25</v>
@@ -2664,22 +2698,22 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>42</v>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
-        <v>40</v>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="5">
         <v>20</v>
@@ -2698,22 +2732,22 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>44</v>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="6">
-        <v>40</v>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="5">
         <v>15</v>
@@ -2732,10 +2766,10 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" t="s" s="6">
-        <v>45</v>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2748,10 +2782,10 @@
       <c r="K7" s="10"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" t="s" s="6">
-        <v>46</v>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2764,10 +2798,10 @@
       <c r="K8" s="10"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" t="s" s="6">
-        <v>47</v>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2780,10 +2814,10 @@
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" t="s" s="6">
-        <v>48</v>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2798,7 +2832,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2806,82 +2840,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="12" customWidth="1"/>
     <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="12" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="12" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="26.1" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="26.1" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="26.1" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>54</v>
       </c>
       <c r="E4" s="5">
         <v>30</v>
@@ -2890,18 +2938,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>56</v>
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="5">
         <v>20</v>
@@ -2910,18 +2958,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s" s="14">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s" s="14">
-        <v>59</v>
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -2930,9 +2978,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>45</v>
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="15"/>
@@ -2940,9 +2988,9 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>46</v>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="15"/>
@@ -2950,7 +2998,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -2958,7 +3006,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
@@ -2968,7 +3016,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2976,168 +3024,186 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="14" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="16" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="16" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="13">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="D4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="E4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="F4" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="19">
+      <c r="C5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="D5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="E5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s" s="19">
+      <c r="F5" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s" s="22">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s" s="22">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s" s="22">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s" s="22">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" t="s" s="6">
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s" s="21">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s" s="23">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s" s="23">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s" s="23">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s" s="23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>45</v>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>46</v>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>47</v>
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>48</v>
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -3146,7 +3212,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3154,43 +3220,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.9375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.9296875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>40590</v>
       </c>
@@ -3204,7 +3270,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>40604</v>
       </c>
@@ -3226,7 +3292,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>40625</v>
       </c>
@@ -3243,11 +3309,12 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="25" t="e">
         <f>(D4-D3)/E4*60</f>
-      </c>
-    </row>
-    <row r="5" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>40639</v>
       </c>
@@ -3264,11 +3331,12 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="25" t="e">
         <f>(D5-D4)/E5*60</f>
-      </c>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>40653</v>
       </c>
@@ -3285,11 +3353,12 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="25" t="e">
         <f>(D6-D5)/E6*60</f>
-      </c>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>40667</v>
       </c>
@@ -3306,11 +3375,12 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="25" t="e">
         <f>(D7-D6)/E7*60</f>
-      </c>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3318,7 +3388,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3326,7 +3396,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3336,117 +3406,136 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" style="26" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="26" customWidth="1"/>
     <col min="8" max="8" width="5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.73046875" style="26" customWidth="1"/>
     <col min="10" max="10" width="8" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="26" customWidth="1"/>
+    <col min="11" max="256" width="8.1328125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="B2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s" s="14">
+      <c r="C3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5">
+        <v>61</v>
+      </c>
+      <c r="J3" s="5">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6">
-        <v>150</v>
-      </c>
-      <c r="G2" s="6">
-        <v>60</v>
-      </c>
-      <c r="H2" s="6">
-        <v>120</v>
-      </c>
-      <c r="I2" s="6">
-        <v>90</v>
-      </c>
-      <c r="J2" s="11">
-        <v>40444</v>
-      </c>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>38</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -3458,21 +3547,21 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="14">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s" s="6">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="6">
-        <v>40</v>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="5">
         <v>20</v>
@@ -3490,21 +3579,21 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="6" ht="29.1" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s" s="14">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s" s="6">
+    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s" s="6">
-        <v>40</v>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F6" s="5">
         <v>20</v>
@@ -3520,7 +3609,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3532,7 +3621,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3544,7 +3633,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3556,7 +3645,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="26.1" customHeight="1">
+    <row r="10" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3568,7 +3657,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" ht="17.1" customHeight="1">
+    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3580,7 +3669,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" ht="26.1" customHeight="1">
+    <row r="12" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3592,7 +3681,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1">
+    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3604,10 +3693,10 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" ht="17.1" customHeight="1">
+    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" t="s" s="13">
-        <v>92</v>
+      <c r="B14" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="5"/>
@@ -3618,7 +3707,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" ht="17.1" customHeight="1">
+    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="27"/>
       <c r="C15" s="15"/>
@@ -3630,10 +3719,10 @@
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" ht="17.1" customHeight="1">
+    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" t="s" s="13">
-        <v>93</v>
+      <c r="B16" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="5"/>
@@ -3644,10 +3733,10 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" ht="17.1" customHeight="1">
+    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" t="s" s="14">
-        <v>94</v>
+      <c r="B17" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
@@ -3658,10 +3747,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" ht="26.1" customHeight="1">
+    <row r="18" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" t="s" s="14">
-        <v>95</v>
+      <c r="B18" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="5"/>
@@ -3672,7 +3761,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="17.1" customHeight="1">
+    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3684,10 +3773,10 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" ht="17.1" customHeight="1">
+    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" t="s" s="13">
-        <v>96</v>
+      <c r="B20" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
@@ -3698,10 +3787,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" ht="26.1" customHeight="1">
+    <row r="21" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" t="s" s="14">
-        <v>97</v>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="5"/>
@@ -3714,7 +3803,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3722,59 +3811,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="28" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="28" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3786,7 +3865,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3798,7 +3877,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3810,7 +3889,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3822,7 +3901,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3834,7 +3913,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3846,7 +3925,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3858,7 +3937,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3870,7 +3949,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3884,7 +3963,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3892,59 +3971,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="29" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="29" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3956,7 +4025,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3968,7 +4037,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3980,7 +4049,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3992,7 +4061,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4004,7 +4073,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4016,7 +4085,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4028,7 +4097,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4040,7 +4109,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4054,7 +4123,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4062,59 +4131,49 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="30" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="30" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4126,7 +4185,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4138,7 +4197,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4150,7 +4209,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4162,7 +4221,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4174,7 +4233,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4186,7 +4245,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4198,7 +4257,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4210,7 +4269,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4224,7 +4283,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
   <si>
     <t>Initials</t>
   </si>
@@ -55,6 +55,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>hchaturv@stevens.edu</t>
     </r>
@@ -78,6 +79,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>sgrozny@stevens.edu</t>
     </r>
@@ -95,6 +97,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>lzhang40@stevens.edu</t>
     </r>
@@ -310,12 +313,6 @@
     <t>Keep doing:</t>
   </si>
   <si>
-    <t>Meet twice a week</t>
-  </si>
-  <si>
-    <t>Text everyone when you discover a problem</t>
-  </si>
-  <si>
     <t>Avoid:</t>
   </si>
   <si>
@@ -350,6 +347,12 @@
   </si>
   <si>
     <t>gender on parents</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Meeting only once a week</t>
   </si>
 </sst>
 </file>
@@ -370,28 +373,33 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -599,7 +607,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -779,7 +787,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24</c:v>
@@ -808,11 +816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110441600"/>
-        <c:axId val="110443136"/>
+        <c:axId val="93226112"/>
+        <c:axId val="104173568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110441600"/>
+        <c:axId val="93226112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110443136"/>
+        <c:crossAx val="104173568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +863,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110443136"/>
+        <c:axId val="104173568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110441600"/>
+        <c:crossAx val="93226112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -2226,16 +2234,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.1328125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.09765625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2253,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2261,7 +2269,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -2279,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -2297,16 +2305,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -2315,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2323,7 +2331,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2331,7 +2339,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2339,7 +2347,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2351,7 +2359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2379,12 +2387,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="31" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2428,7 +2436,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2440,7 +2448,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2452,7 +2460,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2464,7 +2472,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2476,7 +2484,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2488,7 +2496,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2500,7 +2508,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2512,7 +2520,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2538,27 +2546,27 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.86328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.1328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.86328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.1328125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.09765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2604,11 +2612,11 @@
         <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>37</v>
@@ -2622,7 +2630,7 @@
       <c r="I2" s="5">
         <v>23</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>30</v>
       </c>
       <c r="K2" s="10">
@@ -2630,7 +2638,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2642,7 +2650,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>37</v>
@@ -2664,7 +2672,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2698,7 +2706,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2732,7 +2740,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2766,7 +2774,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>42</v>
@@ -2782,7 +2790,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>43</v>
@@ -2798,7 +2806,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>44</v>
@@ -2814,7 +2822,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>45</v>
@@ -2844,21 +2852,21 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="12" customWidth="1"/>
     <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.1328125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="12" customWidth="1"/>
     <col min="6" max="6" width="6.3984375" style="12" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="12" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -2878,18 +2886,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
@@ -2898,7 +2906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -2909,7 +2917,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5">
         <v>20</v>
@@ -2918,7 +2926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -2932,13 +2940,13 @@
         <v>50</v>
       </c>
       <c r="E4" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -2972,13 +2980,13 @@
         <v>55</v>
       </c>
       <c r="E6" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2988,7 +2996,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -2998,7 +3006,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -3006,7 +3014,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
@@ -3028,21 +3036,21 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="16" customWidth="1"/>
     <col min="3" max="3" width="14" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="16" customWidth="1"/>
     <col min="5" max="5" width="24.3984375" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.3984375" style="16" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="16" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -3070,19 +3078,19 @@
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -3093,16 +3101,16 @@
         <v>34</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -3174,7 +3182,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>75</v>
       </c>
@@ -3186,7 +3194,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
@@ -3198,7 +3206,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -3223,20 +3231,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="24" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.9296875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.8984375" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.3984375" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>78</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>40590</v>
       </c>
@@ -3270,29 +3280,31 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>40604</v>
       </c>
       <c r="B3" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <f>B2-B3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
-        <v>53</v>
+        <f>SUM(Sprint1!H2:H6)</f>
+        <v>119</v>
       </c>
       <c r="E3" s="6">
-        <v>40</v>
+        <f>SUM(Sprint1!I2:I6)</f>
+        <v>171</v>
       </c>
       <c r="F3" s="25">
         <f>(D3-D2)/E3*60</f>
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41.754385964912281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>40625</v>
       </c>
@@ -3301,7 +3313,7 @@
       </c>
       <c r="C4" s="6">
         <f>B3-B4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -3314,7 +3326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>40639</v>
       </c>
@@ -3336,7 +3348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>40653</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>40667</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3388,7 +3400,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3396,7 +3408,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3416,28 +3428,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="26" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="26" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="26" customWidth="1"/>
     <col min="7" max="7" width="5.59765625" style="26" customWidth="1"/>
     <col min="8" max="8" width="5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="5.73046875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="26" customWidth="1"/>
     <col min="10" max="10" width="8" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.1328125" style="26" customWidth="1"/>
+    <col min="11" max="256" width="8.09765625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -3469,18 +3481,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -3491,7 +3503,7 @@
       <c r="G2" s="6">
         <v>49</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>23</v>
       </c>
       <c r="I2" s="6">
@@ -3501,7 +3513,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -3509,13 +3521,13 @@
         <v>34</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F3" s="5">
         <v>20</v>
@@ -3529,25 +3541,287 @@
       <c r="I3" s="5">
         <v>61</v>
       </c>
-      <c r="J3" s="5">
-        <v>40604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10">
+        <v>40604</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="31"/>
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="31"/>
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31"/>
+      <c r="CZ4" s="31"/>
+      <c r="DA4" s="31"/>
+      <c r="DB4" s="31"/>
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="31"/>
+      <c r="DE4" s="31"/>
+      <c r="DF4" s="31"/>
+      <c r="DG4" s="31"/>
+      <c r="DH4" s="31"/>
+      <c r="DI4" s="31"/>
+      <c r="DJ4" s="31"/>
+      <c r="DK4" s="31"/>
+      <c r="DL4" s="31"/>
+      <c r="DM4" s="31"/>
+      <c r="DN4" s="31"/>
+      <c r="DO4" s="31"/>
+      <c r="DP4" s="31"/>
+      <c r="DQ4" s="31"/>
+      <c r="DR4" s="31"/>
+      <c r="DS4" s="31"/>
+      <c r="DT4" s="31"/>
+      <c r="DU4" s="31"/>
+      <c r="DV4" s="31"/>
+      <c r="DW4" s="31"/>
+      <c r="DX4" s="31"/>
+      <c r="DY4" s="31"/>
+      <c r="DZ4" s="31"/>
+      <c r="EA4" s="31"/>
+      <c r="EB4" s="31"/>
+      <c r="EC4" s="31"/>
+      <c r="ED4" s="31"/>
+      <c r="EE4" s="31"/>
+      <c r="EF4" s="31"/>
+      <c r="EG4" s="31"/>
+      <c r="EH4" s="31"/>
+      <c r="EI4" s="31"/>
+      <c r="EJ4" s="31"/>
+      <c r="EK4" s="31"/>
+      <c r="EL4" s="31"/>
+      <c r="EM4" s="31"/>
+      <c r="EN4" s="31"/>
+      <c r="EO4" s="31"/>
+      <c r="EP4" s="31"/>
+      <c r="EQ4" s="31"/>
+      <c r="ER4" s="31"/>
+      <c r="ES4" s="31"/>
+      <c r="ET4" s="31"/>
+      <c r="EU4" s="31"/>
+      <c r="EV4" s="31"/>
+      <c r="EW4" s="31"/>
+      <c r="EX4" s="31"/>
+      <c r="EY4" s="31"/>
+      <c r="EZ4" s="31"/>
+      <c r="FA4" s="31"/>
+      <c r="FB4" s="31"/>
+      <c r="FC4" s="31"/>
+      <c r="FD4" s="31"/>
+      <c r="FE4" s="31"/>
+      <c r="FF4" s="31"/>
+      <c r="FG4" s="31"/>
+      <c r="FH4" s="31"/>
+      <c r="FI4" s="31"/>
+      <c r="FJ4" s="31"/>
+      <c r="FK4" s="31"/>
+      <c r="FL4" s="31"/>
+      <c r="FM4" s="31"/>
+      <c r="FN4" s="31"/>
+      <c r="FO4" s="31"/>
+      <c r="FP4" s="31"/>
+      <c r="FQ4" s="31"/>
+      <c r="FR4" s="31"/>
+      <c r="FS4" s="31"/>
+      <c r="FT4" s="31"/>
+      <c r="FU4" s="31"/>
+      <c r="FV4" s="31"/>
+      <c r="FW4" s="31"/>
+      <c r="FX4" s="31"/>
+      <c r="FY4" s="31"/>
+      <c r="FZ4" s="31"/>
+      <c r="GA4" s="31"/>
+      <c r="GB4" s="31"/>
+      <c r="GC4" s="31"/>
+      <c r="GD4" s="31"/>
+      <c r="GE4" s="31"/>
+      <c r="GF4" s="31"/>
+      <c r="GG4" s="31"/>
+      <c r="GH4" s="31"/>
+      <c r="GI4" s="31"/>
+      <c r="GJ4" s="31"/>
+      <c r="GK4" s="31"/>
+      <c r="GL4" s="31"/>
+      <c r="GM4" s="31"/>
+      <c r="GN4" s="31"/>
+      <c r="GO4" s="31"/>
+      <c r="GP4" s="31"/>
+      <c r="GQ4" s="31"/>
+      <c r="GR4" s="31"/>
+      <c r="GS4" s="31"/>
+      <c r="GT4" s="31"/>
+      <c r="GU4" s="31"/>
+      <c r="GV4" s="31"/>
+      <c r="GW4" s="31"/>
+      <c r="GX4" s="31"/>
+      <c r="GY4" s="31"/>
+      <c r="GZ4" s="31"/>
+      <c r="HA4" s="31"/>
+      <c r="HB4" s="31"/>
+      <c r="HC4" s="31"/>
+      <c r="HD4" s="31"/>
+      <c r="HE4" s="31"/>
+      <c r="HF4" s="31"/>
+      <c r="HG4" s="31"/>
+      <c r="HH4" s="31"/>
+      <c r="HI4" s="31"/>
+      <c r="HJ4" s="31"/>
+      <c r="HK4" s="31"/>
+      <c r="HL4" s="31"/>
+      <c r="HM4" s="31"/>
+      <c r="HN4" s="31"/>
+      <c r="HO4" s="31"/>
+      <c r="HP4" s="31"/>
+      <c r="HQ4" s="31"/>
+      <c r="HR4" s="31"/>
+      <c r="HS4" s="31"/>
+      <c r="HT4" s="31"/>
+      <c r="HU4" s="31"/>
+      <c r="HV4" s="31"/>
+      <c r="HW4" s="31"/>
+      <c r="HX4" s="31"/>
+      <c r="HY4" s="31"/>
+      <c r="HZ4" s="31"/>
+      <c r="IA4" s="31"/>
+      <c r="IB4" s="31"/>
+      <c r="IC4" s="31"/>
+      <c r="ID4" s="31"/>
+      <c r="IE4" s="31"/>
+      <c r="IF4" s="31"/>
+      <c r="IG4" s="31"/>
+      <c r="IH4" s="31"/>
+      <c r="II4" s="31"/>
+      <c r="IJ4" s="31"/>
+      <c r="IK4" s="31"/>
+      <c r="IL4" s="31"/>
+      <c r="IM4" s="31"/>
+      <c r="IN4" s="31"/>
+      <c r="IO4" s="31"/>
+      <c r="IP4" s="31"/>
+      <c r="IQ4" s="31"/>
+      <c r="IR4" s="31"/>
+      <c r="IS4" s="31"/>
+      <c r="IT4" s="31"/>
+      <c r="IU4" s="31"/>
+      <c r="IV4"/>
+    </row>
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -3575,11 +3849,11 @@
       <c r="I5" s="5">
         <v>30</v>
       </c>
-      <c r="J5" s="5">
-        <v>40604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="11">
+        <v>40607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -3607,9 +3881,11 @@
       <c r="I6" s="5">
         <v>20</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="11">
+        <v>40608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3621,7 +3897,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3633,7 +3909,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3645,7 +3921,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3657,7 +3933,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3669,7 +3945,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:256" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3681,7 +3957,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3693,7 +3969,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
         <v>85</v>
@@ -3707,7 +3983,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="27"/>
       <c r="C15" s="15"/>
@@ -3719,7 +3995,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="13" t="s">
         <v>86</v>
@@ -3733,11 +4009,9 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3747,11 +4021,9 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3761,9 +4033,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="C19" s="15"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3773,10 +4047,10 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="13" t="s">
-        <v>89</v>
+      <c r="B20" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
@@ -3787,10 +4061,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="5"/>
@@ -3800,6 +4074,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3816,12 +4093,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="28" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +4130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3865,7 +4142,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3877,7 +4154,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3889,7 +4166,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3901,7 +4178,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3913,7 +4190,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3925,7 +4202,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3937,7 +4214,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3949,7 +4226,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3976,12 +4253,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="29" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4025,7 +4302,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4037,7 +4314,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4049,7 +4326,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4061,7 +4338,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4073,7 +4350,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4085,7 +4362,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4097,7 +4374,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4109,7 +4386,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4136,12 +4413,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="30" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -4173,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4185,7 +4462,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4197,7 +4474,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4209,7 +4486,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4221,7 +4498,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4233,7 +4510,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4245,7 +4522,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4257,7 +4534,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4269,7 +4546,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Stories" sheetId="3" r:id="rId6"/>
-    <sheet name="Tests" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Sprint5" sheetId="10" r:id="rId13"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint5" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
   <si>
     <t>Initials</t>
   </si>
@@ -49,7 +51,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -72,7 +74,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -95,7 +97,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
@@ -292,7 +294,6 @@
   <si>
     <t>AT 09</t>
   </si>
-  <si/>
   <si>
     <t>Date</t>
   </si>
@@ -337,18 +338,62 @@
   </si>
   <si>
     <t>Forgetting to commit changes to GitHub</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>nothing can happen after death date</t>
+  </si>
+  <si>
+    <t>lz</t>
+  </si>
+  <si>
+    <t>divorce date cant be before married date</t>
+  </si>
+  <si>
+    <t>AT01</t>
+  </si>
+  <si>
+    <t>AT02</t>
+  </si>
+  <si>
+    <t>about death problem</t>
+  </si>
+  <si>
+    <t>about divorce date problem</t>
+  </si>
+  <si>
+    <t>AT06</t>
+  </si>
+  <si>
+    <t>AT07</t>
+  </si>
+  <si>
+    <t>GED file, Individual Id,Bdays,Ddays</t>
+  </si>
+  <si>
+    <t>judge whether death before birth</t>
+  </si>
+  <si>
+    <t>gender is wrong</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -357,20 +402,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -381,7 +416,7 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
@@ -390,16 +425,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,139 +557,167 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff888888"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ff4a7ebb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF888888"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -673,23 +726,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976261"/>
-          <c:y val="0.0589623"/>
-          <c:w val="0.898521"/>
-          <c:h val="0.833096"/>
+          <c:x val="9.7626099999999993E-2"/>
+          <c:y val="5.8962300000000002E-2"/>
+          <c:w val="0.89852100000000001"/>
+          <c:h val="0.83309599999999995"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -702,9 +756,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -731,41 +782,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="6"/>
@@ -784,45 +800,52 @@
               <c:pt idx="4">
                 <c:v>5/5</c:v>
               </c:pt>
-              <c:pt idx="5">
-                <c:v/>
-              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.000000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="82723968"/>
+        <c:axId val="82725504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="82723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +869,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -854,16 +877,18 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="82725504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="82725504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +923,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -906,9 +931,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="82723968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -927,6 +953,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -941,11 +968,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -959,18 +991,18 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="889545" y="1485557"/>
-        <a:ext cx="4450310" cy="2369314"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -980,7 +1012,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1172,7 +1204,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1181,7 +1213,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1190,7 +1222,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1199,7 +1231,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1208,7 +1240,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1217,7 +1249,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1329,8 +1361,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1338,14 +1370,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1364,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1404,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1400,7 +1432,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1484,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1510,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1562,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1608,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,9 +1653,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1639,7 +1677,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1658,7 +1696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1684,7 +1722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1710,7 +1748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1736,7 +1774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1762,7 +1800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1788,7 +1826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1814,7 +1852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,7 +1878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1866,7 +1904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1892,7 +1930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1905,9 +1943,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1920,7 +1964,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1939,7 +1983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +2013,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2065,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2091,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2177,7 +2221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2190,52 +2234,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.1328125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2243,61 +2292,61 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2305,7 +2354,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2313,7 +2362,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2321,19 +2370,19 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2343,12 +2392,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2356,59 +2405,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="31" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="31" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2420,7 +2459,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2432,7 +2471,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2444,7 +2483,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2456,7 +2495,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2468,7 +2507,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2480,7 +2519,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2492,7 +2531,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2504,7 +2543,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2518,7 +2557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2526,125 +2565,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.265625" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.1328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s" s="9">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s" s="9">
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="10"/>
+      <c r="E2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="5">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10">
+        <v>40604</v>
+      </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>37</v>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10">
+        <v>40604</v>
+      </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="5">
@@ -2664,21 +2729,21 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="5">
@@ -2698,21 +2763,21 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="6">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="5">
@@ -2732,41 +2797,77 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s" s="6">
+    <row r="7" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10">
+        <v>40625</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s" s="6">
+    <row r="8" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="10"/>
+      <c r="E8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="5">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10">
+        <v>40625</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="5"/>
@@ -2780,9 +2881,9 @@
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="5"/>
@@ -2798,7 +2899,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2806,81 +2907,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="12" customWidth="1"/>
     <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="12" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="12" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="26.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="14">
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="26.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="D2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="26.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="5">
@@ -2890,17 +3005,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5">
@@ -2910,17 +3025,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="14">
+      <c r="D6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="5">
@@ -2930,27 +3045,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" ht="17.1" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -2958,7 +3093,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
@@ -2968,7 +3103,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2976,59 +3111,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="14" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="16" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="16" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="5"/>
@@ -3036,71 +3181,71 @@
       <c r="E3" s="18"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s" s="19">
+      <c r="C4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="E4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s" s="19">
+      <c r="F4" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s" s="22">
+      <c r="C5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="s" s="22">
+      <c r="D5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E5" t="s" s="22">
+      <c r="E5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F5" t="s" s="22">
+      <c r="F5" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s" s="23">
+      <c r="D6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="E6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s" s="23">
+      <c r="F6" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="5"/>
@@ -3108,11 +3253,11 @@
       <c r="E7" s="18"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="5"/>
@@ -3120,11 +3265,11 @@
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="5"/>
@@ -3132,11 +3277,11 @@
       <c r="E9" s="15"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="5"/>
@@ -3146,7 +3291,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3154,43 +3299,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.1328125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>40590</v>
       </c>
@@ -3204,7 +3349,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>40604</v>
       </c>
@@ -3226,7 +3371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>40625</v>
       </c>
@@ -3243,11 +3388,12 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="25" t="e">
         <f>(D4-D3)/E4*60</f>
-      </c>
-    </row>
-    <row r="5" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>40639</v>
       </c>
@@ -3264,11 +3410,12 @@
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="25" t="e">
         <f>(D5-D4)/E5*60</f>
-      </c>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>40653</v>
       </c>
@@ -3285,11 +3432,12 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="25" t="e">
         <f>(D6-D5)/E6*60</f>
-      </c>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>40667</v>
       </c>
@@ -3306,11 +3454,12 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="25" t="e">
         <f>(D7-D6)/E7*60</f>
-      </c>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3318,7 +3467,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3326,7 +3475,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3336,82 +3485,83 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" style="26" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="26" customWidth="1"/>
     <col min="8" max="8" width="5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.73046875" style="26" customWidth="1"/>
     <col min="10" max="10" width="8" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="26" customWidth="1"/>
+    <col min="11" max="256" width="8.1328125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s" s="14">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s" s="14">
+      <c r="C2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="6">
@@ -3430,48 +3580,80 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>70</v>
+      </c>
+      <c r="I3" s="5">
+        <v>70</v>
+      </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5">
+        <v>60</v>
+      </c>
+      <c r="I4" s="5">
+        <v>30</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="14">
+      <c r="B5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="5">
@@ -3490,20 +3672,20 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="6" ht="29.1" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="5">
@@ -3520,7 +3702,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3532,7 +3714,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3544,7 +3726,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3556,7 +3738,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="26.1" customHeight="1">
+    <row r="10" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3568,7 +3750,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" ht="17.1" customHeight="1">
+    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3580,7 +3762,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" ht="26.1" customHeight="1">
+    <row r="12" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3592,7 +3774,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1">
+    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3604,10 +3786,10 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" ht="17.1" customHeight="1">
+    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" t="s" s="13">
-        <v>92</v>
+      <c r="B14" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="5"/>
@@ -3618,7 +3800,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" ht="17.1" customHeight="1">
+    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="27"/>
       <c r="C15" s="15"/>
@@ -3630,10 +3812,10 @@
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" ht="17.1" customHeight="1">
+    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" t="s" s="13">
-        <v>93</v>
+      <c r="B16" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="5"/>
@@ -3644,10 +3826,10 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" ht="17.1" customHeight="1">
+    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" t="s" s="14">
-        <v>94</v>
+      <c r="B17" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
@@ -3658,10 +3840,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" ht="26.1" customHeight="1">
+    <row r="18" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" t="s" s="14">
-        <v>95</v>
+      <c r="B18" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="5"/>
@@ -3672,7 +3854,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="17.1" customHeight="1">
+    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3684,10 +3866,10 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" ht="17.1" customHeight="1">
+    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" t="s" s="13">
-        <v>96</v>
+      <c r="B20" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="5"/>
@@ -3698,10 +3880,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" ht="26.1" customHeight="1">
+    <row r="21" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" t="s" s="14">
-        <v>97</v>
+      <c r="B21" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="5"/>
@@ -3714,7 +3896,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3722,59 +3904,249 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="28" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="28" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.13043478260869601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="256" width="8.1328125" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3786,7 +4158,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3798,7 +4170,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3810,7 +4182,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3822,7 +4194,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3834,7 +4206,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3846,7 +4218,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3858,7 +4230,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3870,7 +4242,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3884,67 +4256,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="29" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="29" customWidth="1"/>
+    <col min="1" max="256" width="8.1328125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3956,7 +4318,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3968,7 +4330,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3980,7 +4342,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3992,7 +4354,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4004,7 +4366,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4016,7 +4378,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4028,7 +4390,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4040,7 +4402,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4054,177 +4416,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="30" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="17.1" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/GEDCOM_JAVA/Team04Report.xlsx
+++ b/GEDCOM_JAVA/Team04Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="11020" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11025" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="187">
   <si>
     <t>Initials</t>
   </si>
@@ -384,6 +384,231 @@
   <si>
     <t>DONE</t>
   </si>
+  <si>
+    <t>Gender on parent is wrong</t>
+  </si>
+  <si>
+    <t>Individual is both a spouse and a parent</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Individual records don't match family recored</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Two Identical Children in a family</t>
+  </si>
+  <si>
+    <t>No marriage date in a family</t>
+  </si>
+  <si>
+    <t>BirthDate of children can't be after deathdate of mother</t>
+  </si>
+  <si>
+    <t>Birthdate of children can't be before birthdate of parents</t>
+  </si>
+  <si>
+    <t>Deathdate of indvidual can't be before birthdate</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Mom is under 5 years old</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Individual is a spouse to multipile families without a Divore or Deathdate</t>
+  </si>
+  <si>
+    <t>Age is over 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only husband but no wife </t>
+  </si>
+  <si>
+    <t>An individual can't be a child to two families, unless a remarriage occred</t>
+  </si>
+  <si>
+    <t>A family can't have more than 1 of each spouses</t>
+  </si>
+  <si>
+    <t>first cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>aunts and uncles should not marry their nephews or nieces</t>
+  </si>
+  <si>
+    <t>Family Records should match individaul records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An individual is an ancestral child of self, </t>
+  </si>
+  <si>
+    <t>Loop exists</t>
+  </si>
+  <si>
+    <t>Check to see that an individual isn’t both a spouse and a child</t>
+  </si>
+  <si>
+    <t>Make sure all info for individuals matches family records</t>
+  </si>
+  <si>
+    <t>Two children can't share a name and birthdate</t>
+  </si>
+  <si>
+    <t>Marriage date in a family doesn't exist</t>
+  </si>
+  <si>
+    <t>Parents are older</t>
+  </si>
+  <si>
+    <t>Moms give birth</t>
+  </si>
+  <si>
+    <t>Be Alive First</t>
+  </si>
+  <si>
+    <t>Not always 9 months</t>
+  </si>
+  <si>
+    <t>Polygamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthdate of Childrenin reasonable parameters with same mother , 90 -145 days are the apprixamte records for longest twin gap and earliest birth </t>
+  </si>
+  <si>
+    <t>Error if: Two marraiage events without a divorce or death occurance</t>
+  </si>
+  <si>
+    <t>Mom is under 5 years old (record)</t>
+  </si>
+  <si>
+    <t>Sibling Incest</t>
+  </si>
+  <si>
+    <t>Siblings can't be married if biological siblings</t>
+  </si>
+  <si>
+    <t>Dual Role</t>
+  </si>
+  <si>
+    <t>Indvidual can't be both a spouse and a child to same family</t>
+  </si>
+  <si>
+    <t>Dual Marriage</t>
+  </si>
+  <si>
+    <t>Only 1 set of parents or is it</t>
+  </si>
+  <si>
+    <t>We aren't seahorses</t>
+  </si>
+  <si>
+    <t>NJ Pre 2013</t>
+  </si>
+  <si>
+    <t>Third is more legal</t>
+  </si>
+  <si>
+    <t>Teddy's Home</t>
+  </si>
+  <si>
+    <t>AT08</t>
+  </si>
+  <si>
+    <t>AT09</t>
+  </si>
+  <si>
+    <t>AT10</t>
+  </si>
+  <si>
+    <t>AT 10</t>
+  </si>
+  <si>
+    <t>AT 11</t>
+  </si>
+  <si>
+    <t>AT 12</t>
+  </si>
+  <si>
+    <t>AT 13</t>
+  </si>
+  <si>
+    <t>GED File, Where an individaul is a child of its children</t>
+  </si>
+  <si>
+    <t>GED File, FAMS and FAMC match on an indvidual</t>
+  </si>
+  <si>
+    <t>GED File, a FAMS or FAMC call to a family where that family doesn't have a matching tag</t>
+  </si>
+  <si>
+    <t>Individual @SG-2-3-BCP@ will be spotted</t>
+  </si>
+  <si>
+    <t>Alert if any node(individual) is revisited. So Individual A is looped, so it will alert on A, B, and D because B and D's children are A</t>
+  </si>
+  <si>
+    <t>In prgoress, Spots FAMC problems but bugging on a FAMS one</t>
+  </si>
+  <si>
+    <t>Individuals @SG-2-3-RDM@ and @SG-2-3-BCP@ have records that don't match to proper family</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +618,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -425,6 +650,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,7 +798,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -630,9 +867,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -815,16 +1070,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,11 +1096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82723968"/>
-        <c:axId val="82725504"/>
+        <c:axId val="93172480"/>
+        <c:axId val="93174400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82723968"/>
+        <c:axId val="93172480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82725504"/>
+        <c:crossAx val="93174400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +1143,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82725504"/>
+        <c:axId val="93174400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82723968"/>
+        <c:crossAx val="93172480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -2257,16 +2512,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.1328125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.09765625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2284,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2292,7 +2547,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -2310,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -2328,7 +2583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -2346,7 +2601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2354,7 +2609,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2362,7 +2617,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2370,7 +2625,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2382,7 +2637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2410,12 +2665,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="31" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2459,7 +2714,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2471,7 +2726,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2483,7 +2738,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2495,7 +2750,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2507,7 +2762,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2519,7 +2774,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2531,7 +2786,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2543,7 +2798,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2566,30 +2821,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.86328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.73046875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.1328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.59765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.86328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="256" width="8.1328125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.09765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2627,7 +2882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2661,7 +2916,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2669,7 +2924,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -2695,7 +2950,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2729,7 +2984,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2763,7 +3018,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2797,7 +3052,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2831,7 +3086,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -2865,41 +3120,3611 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="10"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5">
+        <v>75</v>
+      </c>
+      <c r="J9" s="5">
+        <v>120</v>
+      </c>
+      <c r="K9" s="10">
+        <v>40618</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
+        <v>40624</v>
+      </c>
       <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5">
+        <v>60</v>
+      </c>
+      <c r="I11" s="5">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5">
+        <v>75</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="31"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="31"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="31"/>
+      <c r="DR11" s="31"/>
+      <c r="DS11" s="31"/>
+      <c r="DT11" s="31"/>
+      <c r="DU11" s="31"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="31"/>
+      <c r="DZ11" s="31"/>
+      <c r="EA11" s="31"/>
+      <c r="EB11" s="31"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
+      <c r="EE11" s="31"/>
+      <c r="EF11" s="31"/>
+      <c r="EG11" s="31"/>
+      <c r="EH11" s="31"/>
+      <c r="EI11" s="31"/>
+      <c r="EJ11" s="31"/>
+      <c r="EK11" s="31"/>
+      <c r="EL11" s="31"/>
+      <c r="EM11" s="31"/>
+      <c r="EN11" s="31"/>
+      <c r="EO11" s="31"/>
+      <c r="EP11" s="31"/>
+      <c r="EQ11" s="31"/>
+      <c r="ER11" s="31"/>
+      <c r="ES11" s="31"/>
+      <c r="ET11" s="31"/>
+      <c r="EU11" s="31"/>
+      <c r="EV11" s="31"/>
+      <c r="EW11" s="31"/>
+      <c r="EX11" s="31"/>
+      <c r="EY11" s="31"/>
+      <c r="EZ11" s="31"/>
+      <c r="FA11" s="31"/>
+      <c r="FB11" s="31"/>
+      <c r="FC11" s="31"/>
+      <c r="FD11" s="31"/>
+      <c r="FE11" s="31"/>
+      <c r="FF11" s="31"/>
+      <c r="FG11" s="31"/>
+      <c r="FH11" s="31"/>
+      <c r="FI11" s="31"/>
+      <c r="FJ11" s="31"/>
+      <c r="FK11" s="31"/>
+      <c r="FL11" s="31"/>
+      <c r="FM11" s="31"/>
+      <c r="FN11" s="31"/>
+      <c r="FO11" s="31"/>
+      <c r="FP11" s="31"/>
+      <c r="FQ11" s="31"/>
+      <c r="FR11" s="31"/>
+      <c r="FS11" s="31"/>
+      <c r="FT11" s="31"/>
+      <c r="FU11" s="31"/>
+      <c r="FV11" s="31"/>
+      <c r="FW11" s="31"/>
+      <c r="FX11" s="31"/>
+      <c r="FY11" s="31"/>
+      <c r="FZ11" s="31"/>
+      <c r="GA11" s="31"/>
+      <c r="GB11" s="31"/>
+      <c r="GC11" s="31"/>
+      <c r="GD11" s="31"/>
+      <c r="GE11" s="31"/>
+      <c r="GF11" s="31"/>
+      <c r="GG11" s="31"/>
+      <c r="GH11" s="31"/>
+      <c r="GI11" s="31"/>
+      <c r="GJ11" s="31"/>
+      <c r="GK11" s="31"/>
+      <c r="GL11" s="31"/>
+      <c r="GM11" s="31"/>
+      <c r="GN11" s="31"/>
+      <c r="GO11" s="31"/>
+      <c r="GP11" s="31"/>
+      <c r="GQ11" s="31"/>
+      <c r="GR11" s="31"/>
+      <c r="GS11" s="31"/>
+      <c r="GT11" s="31"/>
+      <c r="GU11" s="31"/>
+      <c r="GV11" s="31"/>
+      <c r="GW11" s="31"/>
+      <c r="GX11" s="31"/>
+      <c r="GY11" s="31"/>
+      <c r="GZ11" s="31"/>
+      <c r="HA11" s="31"/>
+      <c r="HB11" s="31"/>
+      <c r="HC11" s="31"/>
+      <c r="HD11" s="31"/>
+      <c r="HE11" s="31"/>
+      <c r="HF11" s="31"/>
+      <c r="HG11" s="31"/>
+      <c r="HH11" s="31"/>
+      <c r="HI11" s="31"/>
+      <c r="HJ11" s="31"/>
+      <c r="HK11" s="31"/>
+      <c r="HL11" s="31"/>
+      <c r="HM11" s="31"/>
+      <c r="HN11" s="31"/>
+      <c r="HO11" s="31"/>
+      <c r="HP11" s="31"/>
+      <c r="HQ11" s="31"/>
+      <c r="HR11" s="31"/>
+      <c r="HS11" s="31"/>
+      <c r="HT11" s="31"/>
+      <c r="HU11" s="31"/>
+      <c r="HV11" s="31"/>
+      <c r="HW11" s="31"/>
+      <c r="HX11" s="31"/>
+      <c r="HY11" s="31"/>
+      <c r="HZ11" s="31"/>
+      <c r="IA11" s="31"/>
+      <c r="IB11" s="31"/>
+      <c r="IC11" s="31"/>
+      <c r="ID11" s="31"/>
+      <c r="IE11" s="31"/>
+      <c r="IF11" s="31"/>
+      <c r="IG11" s="31"/>
+      <c r="IH11" s="31"/>
+      <c r="II11" s="31"/>
+      <c r="IJ11" s="31"/>
+      <c r="IK11" s="31"/>
+      <c r="IL11" s="31"/>
+      <c r="IM11" s="31"/>
+      <c r="IN11" s="31"/>
+      <c r="IO11" s="31"/>
+      <c r="IP11" s="31"/>
+      <c r="IQ11" s="31"/>
+      <c r="IR11" s="31"/>
+      <c r="IS11" s="31"/>
+      <c r="IT11" s="31"/>
+      <c r="IU11" s="31"/>
+      <c r="IV11" s="31"/>
+    </row>
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="31"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="31"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="31"/>
+      <c r="DE12" s="31"/>
+      <c r="DF12" s="31"/>
+      <c r="DG12" s="31"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="31"/>
+      <c r="DK12" s="31"/>
+      <c r="DL12" s="31"/>
+      <c r="DM12" s="31"/>
+      <c r="DN12" s="31"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="31"/>
+      <c r="DR12" s="31"/>
+      <c r="DS12" s="31"/>
+      <c r="DT12" s="31"/>
+      <c r="DU12" s="31"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="31"/>
+      <c r="DZ12" s="31"/>
+      <c r="EA12" s="31"/>
+      <c r="EB12" s="31"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
+      <c r="EE12" s="31"/>
+      <c r="EF12" s="31"/>
+      <c r="EG12" s="31"/>
+      <c r="EH12" s="31"/>
+      <c r="EI12" s="31"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
+      <c r="EL12" s="31"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="31"/>
+      <c r="EO12" s="31"/>
+      <c r="EP12" s="31"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
+      <c r="ES12" s="31"/>
+      <c r="ET12" s="31"/>
+      <c r="EU12" s="31"/>
+      <c r="EV12" s="31"/>
+      <c r="EW12" s="31"/>
+      <c r="EX12" s="31"/>
+      <c r="EY12" s="31"/>
+      <c r="EZ12" s="31"/>
+      <c r="FA12" s="31"/>
+      <c r="FB12" s="31"/>
+      <c r="FC12" s="31"/>
+      <c r="FD12" s="31"/>
+      <c r="FE12" s="31"/>
+      <c r="FF12" s="31"/>
+      <c r="FG12" s="31"/>
+      <c r="FH12" s="31"/>
+      <c r="FI12" s="31"/>
+      <c r="FJ12" s="31"/>
+      <c r="FK12" s="31"/>
+      <c r="FL12" s="31"/>
+      <c r="FM12" s="31"/>
+      <c r="FN12" s="31"/>
+      <c r="FO12" s="31"/>
+      <c r="FP12" s="31"/>
+      <c r="FQ12" s="31"/>
+      <c r="FR12" s="31"/>
+      <c r="FS12" s="31"/>
+      <c r="FT12" s="31"/>
+      <c r="FU12" s="31"/>
+      <c r="FV12" s="31"/>
+      <c r="FW12" s="31"/>
+      <c r="FX12" s="31"/>
+      <c r="FY12" s="31"/>
+      <c r="FZ12" s="31"/>
+      <c r="GA12" s="31"/>
+      <c r="GB12" s="31"/>
+      <c r="GC12" s="31"/>
+      <c r="GD12" s="31"/>
+      <c r="GE12" s="31"/>
+      <c r="GF12" s="31"/>
+      <c r="GG12" s="31"/>
+      <c r="GH12" s="31"/>
+      <c r="GI12" s="31"/>
+      <c r="GJ12" s="31"/>
+      <c r="GK12" s="31"/>
+      <c r="GL12" s="31"/>
+      <c r="GM12" s="31"/>
+      <c r="GN12" s="31"/>
+      <c r="GO12" s="31"/>
+      <c r="GP12" s="31"/>
+      <c r="GQ12" s="31"/>
+      <c r="GR12" s="31"/>
+      <c r="GS12" s="31"/>
+      <c r="GT12" s="31"/>
+      <c r="GU12" s="31"/>
+      <c r="GV12" s="31"/>
+      <c r="GW12" s="31"/>
+      <c r="GX12" s="31"/>
+      <c r="GY12" s="31"/>
+      <c r="GZ12" s="31"/>
+      <c r="HA12" s="31"/>
+      <c r="HB12" s="31"/>
+      <c r="HC12" s="31"/>
+      <c r="HD12" s="31"/>
+      <c r="HE12" s="31"/>
+      <c r="HF12" s="31"/>
+      <c r="HG12" s="31"/>
+      <c r="HH12" s="31"/>
+      <c r="HI12" s="31"/>
+      <c r="HJ12" s="31"/>
+      <c r="HK12" s="31"/>
+      <c r="HL12" s="31"/>
+      <c r="HM12" s="31"/>
+      <c r="HN12" s="31"/>
+      <c r="HO12" s="31"/>
+      <c r="HP12" s="31"/>
+      <c r="HQ12" s="31"/>
+      <c r="HR12" s="31"/>
+      <c r="HS12" s="31"/>
+      <c r="HT12" s="31"/>
+      <c r="HU12" s="31"/>
+      <c r="HV12" s="31"/>
+      <c r="HW12" s="31"/>
+      <c r="HX12" s="31"/>
+      <c r="HY12" s="31"/>
+      <c r="HZ12" s="31"/>
+      <c r="IA12" s="31"/>
+      <c r="IB12" s="31"/>
+      <c r="IC12" s="31"/>
+      <c r="ID12" s="31"/>
+      <c r="IE12" s="31"/>
+      <c r="IF12" s="31"/>
+      <c r="IG12" s="31"/>
+      <c r="IH12" s="31"/>
+      <c r="II12" s="31"/>
+      <c r="IJ12" s="31"/>
+      <c r="IK12" s="31"/>
+      <c r="IL12" s="31"/>
+      <c r="IM12" s="31"/>
+      <c r="IN12" s="31"/>
+      <c r="IO12" s="31"/>
+      <c r="IP12" s="31"/>
+      <c r="IQ12" s="31"/>
+      <c r="IR12" s="31"/>
+      <c r="IS12" s="31"/>
+      <c r="IT12" s="31"/>
+      <c r="IU12" s="31"/>
+      <c r="IV12" s="31"/>
+    </row>
+    <row r="13" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="31"/>
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="31"/>
+      <c r="CJ13" s="31"/>
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="31"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="31"/>
+      <c r="CP13" s="31"/>
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="31"/>
+      <c r="CS13" s="31"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
+      <c r="CV13" s="31"/>
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="31"/>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="31"/>
+      <c r="DE13" s="31"/>
+      <c r="DF13" s="31"/>
+      <c r="DG13" s="31"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31"/>
+      <c r="DJ13" s="31"/>
+      <c r="DK13" s="31"/>
+      <c r="DL13" s="31"/>
+      <c r="DM13" s="31"/>
+      <c r="DN13" s="31"/>
+      <c r="DO13" s="31"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="31"/>
+      <c r="DR13" s="31"/>
+      <c r="DS13" s="31"/>
+      <c r="DT13" s="31"/>
+      <c r="DU13" s="31"/>
+      <c r="DV13" s="31"/>
+      <c r="DW13" s="31"/>
+      <c r="DX13" s="31"/>
+      <c r="DY13" s="31"/>
+      <c r="DZ13" s="31"/>
+      <c r="EA13" s="31"/>
+      <c r="EB13" s="31"/>
+      <c r="EC13" s="31"/>
+      <c r="ED13" s="31"/>
+      <c r="EE13" s="31"/>
+      <c r="EF13" s="31"/>
+      <c r="EG13" s="31"/>
+      <c r="EH13" s="31"/>
+      <c r="EI13" s="31"/>
+      <c r="EJ13" s="31"/>
+      <c r="EK13" s="31"/>
+      <c r="EL13" s="31"/>
+      <c r="EM13" s="31"/>
+      <c r="EN13" s="31"/>
+      <c r="EO13" s="31"/>
+      <c r="EP13" s="31"/>
+      <c r="EQ13" s="31"/>
+      <c r="ER13" s="31"/>
+      <c r="ES13" s="31"/>
+      <c r="ET13" s="31"/>
+      <c r="EU13" s="31"/>
+      <c r="EV13" s="31"/>
+      <c r="EW13" s="31"/>
+      <c r="EX13" s="31"/>
+      <c r="EY13" s="31"/>
+      <c r="EZ13" s="31"/>
+      <c r="FA13" s="31"/>
+      <c r="FB13" s="31"/>
+      <c r="FC13" s="31"/>
+      <c r="FD13" s="31"/>
+      <c r="FE13" s="31"/>
+      <c r="FF13" s="31"/>
+      <c r="FG13" s="31"/>
+      <c r="FH13" s="31"/>
+      <c r="FI13" s="31"/>
+      <c r="FJ13" s="31"/>
+      <c r="FK13" s="31"/>
+      <c r="FL13" s="31"/>
+      <c r="FM13" s="31"/>
+      <c r="FN13" s="31"/>
+      <c r="FO13" s="31"/>
+      <c r="FP13" s="31"/>
+      <c r="FQ13" s="31"/>
+      <c r="FR13" s="31"/>
+      <c r="FS13" s="31"/>
+      <c r="FT13" s="31"/>
+      <c r="FU13" s="31"/>
+      <c r="FV13" s="31"/>
+      <c r="FW13" s="31"/>
+      <c r="FX13" s="31"/>
+      <c r="FY13" s="31"/>
+      <c r="FZ13" s="31"/>
+      <c r="GA13" s="31"/>
+      <c r="GB13" s="31"/>
+      <c r="GC13" s="31"/>
+      <c r="GD13" s="31"/>
+      <c r="GE13" s="31"/>
+      <c r="GF13" s="31"/>
+      <c r="GG13" s="31"/>
+      <c r="GH13" s="31"/>
+      <c r="GI13" s="31"/>
+      <c r="GJ13" s="31"/>
+      <c r="GK13" s="31"/>
+      <c r="GL13" s="31"/>
+      <c r="GM13" s="31"/>
+      <c r="GN13" s="31"/>
+      <c r="GO13" s="31"/>
+      <c r="GP13" s="31"/>
+      <c r="GQ13" s="31"/>
+      <c r="GR13" s="31"/>
+      <c r="GS13" s="31"/>
+      <c r="GT13" s="31"/>
+      <c r="GU13" s="31"/>
+      <c r="GV13" s="31"/>
+      <c r="GW13" s="31"/>
+      <c r="GX13" s="31"/>
+      <c r="GY13" s="31"/>
+      <c r="GZ13" s="31"/>
+      <c r="HA13" s="31"/>
+      <c r="HB13" s="31"/>
+      <c r="HC13" s="31"/>
+      <c r="HD13" s="31"/>
+      <c r="HE13" s="31"/>
+      <c r="HF13" s="31"/>
+      <c r="HG13" s="31"/>
+      <c r="HH13" s="31"/>
+      <c r="HI13" s="31"/>
+      <c r="HJ13" s="31"/>
+      <c r="HK13" s="31"/>
+      <c r="HL13" s="31"/>
+      <c r="HM13" s="31"/>
+      <c r="HN13" s="31"/>
+      <c r="HO13" s="31"/>
+      <c r="HP13" s="31"/>
+      <c r="HQ13" s="31"/>
+      <c r="HR13" s="31"/>
+      <c r="HS13" s="31"/>
+      <c r="HT13" s="31"/>
+      <c r="HU13" s="31"/>
+      <c r="HV13" s="31"/>
+      <c r="HW13" s="31"/>
+      <c r="HX13" s="31"/>
+      <c r="HY13" s="31"/>
+      <c r="HZ13" s="31"/>
+      <c r="IA13" s="31"/>
+      <c r="IB13" s="31"/>
+      <c r="IC13" s="31"/>
+      <c r="ID13" s="31"/>
+      <c r="IE13" s="31"/>
+      <c r="IF13" s="31"/>
+      <c r="IG13" s="31"/>
+      <c r="IH13" s="31"/>
+      <c r="II13" s="31"/>
+      <c r="IJ13" s="31"/>
+      <c r="IK13" s="31"/>
+      <c r="IL13" s="31"/>
+      <c r="IM13" s="31"/>
+      <c r="IN13" s="31"/>
+      <c r="IO13" s="31"/>
+      <c r="IP13" s="31"/>
+      <c r="IQ13" s="31"/>
+      <c r="IR13" s="31"/>
+      <c r="IS13" s="31"/>
+      <c r="IT13" s="31"/>
+      <c r="IU13" s="31"/>
+      <c r="IV13" s="31"/>
+    </row>
+    <row r="14" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31"/>
+      <c r="CG14" s="31"/>
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="31"/>
+      <c r="CJ14" s="31"/>
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="31"/>
+      <c r="CM14" s="31"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="31"/>
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="31"/>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="31"/>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="31"/>
+      <c r="DJ14" s="31"/>
+      <c r="DK14" s="31"/>
+      <c r="DL14" s="31"/>
+      <c r="DM14" s="31"/>
+      <c r="DN14" s="31"/>
+      <c r="DO14" s="31"/>
+      <c r="DP14" s="31"/>
+      <c r="DQ14" s="31"/>
+      <c r="DR14" s="31"/>
+      <c r="DS14" s="31"/>
+      <c r="DT14" s="31"/>
+      <c r="DU14" s="31"/>
+      <c r="DV14" s="31"/>
+      <c r="DW14" s="31"/>
+      <c r="DX14" s="31"/>
+      <c r="DY14" s="31"/>
+      <c r="DZ14" s="31"/>
+      <c r="EA14" s="31"/>
+      <c r="EB14" s="31"/>
+      <c r="EC14" s="31"/>
+      <c r="ED14" s="31"/>
+      <c r="EE14" s="31"/>
+      <c r="EF14" s="31"/>
+      <c r="EG14" s="31"/>
+      <c r="EH14" s="31"/>
+      <c r="EI14" s="31"/>
+      <c r="EJ14" s="31"/>
+      <c r="EK14" s="31"/>
+      <c r="EL14" s="31"/>
+      <c r="EM14" s="31"/>
+      <c r="EN14" s="31"/>
+      <c r="EO14" s="31"/>
+      <c r="EP14" s="31"/>
+      <c r="EQ14" s="31"/>
+      <c r="ER14" s="31"/>
+      <c r="ES14" s="31"/>
+      <c r="ET14" s="31"/>
+      <c r="EU14" s="31"/>
+      <c r="EV14" s="31"/>
+      <c r="EW14" s="31"/>
+      <c r="EX14" s="31"/>
+      <c r="EY14" s="31"/>
+      <c r="EZ14" s="31"/>
+      <c r="FA14" s="31"/>
+      <c r="FB14" s="31"/>
+      <c r="FC14" s="31"/>
+      <c r="FD14" s="31"/>
+      <c r="FE14" s="31"/>
+      <c r="FF14" s="31"/>
+      <c r="FG14" s="31"/>
+      <c r="FH14" s="31"/>
+      <c r="FI14" s="31"/>
+      <c r="FJ14" s="31"/>
+      <c r="FK14" s="31"/>
+      <c r="FL14" s="31"/>
+      <c r="FM14" s="31"/>
+      <c r="FN14" s="31"/>
+      <c r="FO14" s="31"/>
+      <c r="FP14" s="31"/>
+      <c r="FQ14" s="31"/>
+      <c r="FR14" s="31"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="31"/>
+      <c r="FU14" s="31"/>
+      <c r="FV14" s="31"/>
+      <c r="FW14" s="31"/>
+      <c r="FX14" s="31"/>
+      <c r="FY14" s="31"/>
+      <c r="FZ14" s="31"/>
+      <c r="GA14" s="31"/>
+      <c r="GB14" s="31"/>
+      <c r="GC14" s="31"/>
+      <c r="GD14" s="31"/>
+      <c r="GE14" s="31"/>
+      <c r="GF14" s="31"/>
+      <c r="GG14" s="31"/>
+      <c r="GH14" s="31"/>
+      <c r="GI14" s="31"/>
+      <c r="GJ14" s="31"/>
+      <c r="GK14" s="31"/>
+      <c r="GL14" s="31"/>
+      <c r="GM14" s="31"/>
+      <c r="GN14" s="31"/>
+      <c r="GO14" s="31"/>
+      <c r="GP14" s="31"/>
+      <c r="GQ14" s="31"/>
+      <c r="GR14" s="31"/>
+      <c r="GS14" s="31"/>
+      <c r="GT14" s="31"/>
+      <c r="GU14" s="31"/>
+      <c r="GV14" s="31"/>
+      <c r="GW14" s="31"/>
+      <c r="GX14" s="31"/>
+      <c r="GY14" s="31"/>
+      <c r="GZ14" s="31"/>
+      <c r="HA14" s="31"/>
+      <c r="HB14" s="31"/>
+      <c r="HC14" s="31"/>
+      <c r="HD14" s="31"/>
+      <c r="HE14" s="31"/>
+      <c r="HF14" s="31"/>
+      <c r="HG14" s="31"/>
+      <c r="HH14" s="31"/>
+      <c r="HI14" s="31"/>
+      <c r="HJ14" s="31"/>
+      <c r="HK14" s="31"/>
+      <c r="HL14" s="31"/>
+      <c r="HM14" s="31"/>
+      <c r="HN14" s="31"/>
+      <c r="HO14" s="31"/>
+      <c r="HP14" s="31"/>
+      <c r="HQ14" s="31"/>
+      <c r="HR14" s="31"/>
+      <c r="HS14" s="31"/>
+      <c r="HT14" s="31"/>
+      <c r="HU14" s="31"/>
+      <c r="HV14" s="31"/>
+      <c r="HW14" s="31"/>
+      <c r="HX14" s="31"/>
+      <c r="HY14" s="31"/>
+      <c r="HZ14" s="31"/>
+      <c r="IA14" s="31"/>
+      <c r="IB14" s="31"/>
+      <c r="IC14" s="31"/>
+      <c r="ID14" s="31"/>
+      <c r="IE14" s="31"/>
+      <c r="IF14" s="31"/>
+      <c r="IG14" s="31"/>
+      <c r="IH14" s="31"/>
+      <c r="II14" s="31"/>
+      <c r="IJ14" s="31"/>
+      <c r="IK14" s="31"/>
+      <c r="IL14" s="31"/>
+      <c r="IM14" s="31"/>
+      <c r="IN14" s="31"/>
+      <c r="IO14" s="31"/>
+      <c r="IP14" s="31"/>
+      <c r="IQ14" s="31"/>
+      <c r="IR14" s="31"/>
+      <c r="IS14" s="31"/>
+      <c r="IT14" s="31"/>
+      <c r="IU14" s="31"/>
+      <c r="IV14" s="31"/>
+    </row>
+    <row r="15" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
+      <c r="CJ15" s="31"/>
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="31"/>
+      <c r="CM15" s="31"/>
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="31"/>
+      <c r="CP15" s="31"/>
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="31"/>
+      <c r="CS15" s="31"/>
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="31"/>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="31"/>
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="31"/>
+      <c r="DB15" s="31"/>
+      <c r="DC15" s="31"/>
+      <c r="DD15" s="31"/>
+      <c r="DE15" s="31"/>
+      <c r="DF15" s="31"/>
+      <c r="DG15" s="31"/>
+      <c r="DH15" s="31"/>
+      <c r="DI15" s="31"/>
+      <c r="DJ15" s="31"/>
+      <c r="DK15" s="31"/>
+      <c r="DL15" s="31"/>
+      <c r="DM15" s="31"/>
+      <c r="DN15" s="31"/>
+      <c r="DO15" s="31"/>
+      <c r="DP15" s="31"/>
+      <c r="DQ15" s="31"/>
+      <c r="DR15" s="31"/>
+      <c r="DS15" s="31"/>
+      <c r="DT15" s="31"/>
+      <c r="DU15" s="31"/>
+      <c r="DV15" s="31"/>
+      <c r="DW15" s="31"/>
+      <c r="DX15" s="31"/>
+      <c r="DY15" s="31"/>
+      <c r="DZ15" s="31"/>
+      <c r="EA15" s="31"/>
+      <c r="EB15" s="31"/>
+      <c r="EC15" s="31"/>
+      <c r="ED15" s="31"/>
+      <c r="EE15" s="31"/>
+      <c r="EF15" s="31"/>
+      <c r="EG15" s="31"/>
+      <c r="EH15" s="31"/>
+      <c r="EI15" s="31"/>
+      <c r="EJ15" s="31"/>
+      <c r="EK15" s="31"/>
+      <c r="EL15" s="31"/>
+      <c r="EM15" s="31"/>
+      <c r="EN15" s="31"/>
+      <c r="EO15" s="31"/>
+      <c r="EP15" s="31"/>
+      <c r="EQ15" s="31"/>
+      <c r="ER15" s="31"/>
+      <c r="ES15" s="31"/>
+      <c r="ET15" s="31"/>
+      <c r="EU15" s="31"/>
+      <c r="EV15" s="31"/>
+      <c r="EW15" s="31"/>
+      <c r="EX15" s="31"/>
+      <c r="EY15" s="31"/>
+      <c r="EZ15" s="31"/>
+      <c r="FA15" s="31"/>
+      <c r="FB15" s="31"/>
+      <c r="FC15" s="31"/>
+      <c r="FD15" s="31"/>
+      <c r="FE15" s="31"/>
+      <c r="FF15" s="31"/>
+      <c r="FG15" s="31"/>
+      <c r="FH15" s="31"/>
+      <c r="FI15" s="31"/>
+      <c r="FJ15" s="31"/>
+      <c r="FK15" s="31"/>
+      <c r="FL15" s="31"/>
+      <c r="FM15" s="31"/>
+      <c r="FN15" s="31"/>
+      <c r="FO15" s="31"/>
+      <c r="FP15" s="31"/>
+      <c r="FQ15" s="31"/>
+      <c r="FR15" s="31"/>
+      <c r="FS15" s="31"/>
+      <c r="FT15" s="31"/>
+      <c r="FU15" s="31"/>
+      <c r="FV15" s="31"/>
+      <c r="FW15" s="31"/>
+      <c r="FX15" s="31"/>
+      <c r="FY15" s="31"/>
+      <c r="FZ15" s="31"/>
+      <c r="GA15" s="31"/>
+      <c r="GB15" s="31"/>
+      <c r="GC15" s="31"/>
+      <c r="GD15" s="31"/>
+      <c r="GE15" s="31"/>
+      <c r="GF15" s="31"/>
+      <c r="GG15" s="31"/>
+      <c r="GH15" s="31"/>
+      <c r="GI15" s="31"/>
+      <c r="GJ15" s="31"/>
+      <c r="GK15" s="31"/>
+      <c r="GL15" s="31"/>
+      <c r="GM15" s="31"/>
+      <c r="GN15" s="31"/>
+      <c r="GO15" s="31"/>
+      <c r="GP15" s="31"/>
+      <c r="GQ15" s="31"/>
+      <c r="GR15" s="31"/>
+      <c r="GS15" s="31"/>
+      <c r="GT15" s="31"/>
+      <c r="GU15" s="31"/>
+      <c r="GV15" s="31"/>
+      <c r="GW15" s="31"/>
+      <c r="GX15" s="31"/>
+      <c r="GY15" s="31"/>
+      <c r="GZ15" s="31"/>
+      <c r="HA15" s="31"/>
+      <c r="HB15" s="31"/>
+      <c r="HC15" s="31"/>
+      <c r="HD15" s="31"/>
+      <c r="HE15" s="31"/>
+      <c r="HF15" s="31"/>
+      <c r="HG15" s="31"/>
+      <c r="HH15" s="31"/>
+      <c r="HI15" s="31"/>
+      <c r="HJ15" s="31"/>
+      <c r="HK15" s="31"/>
+      <c r="HL15" s="31"/>
+      <c r="HM15" s="31"/>
+      <c r="HN15" s="31"/>
+      <c r="HO15" s="31"/>
+      <c r="HP15" s="31"/>
+      <c r="HQ15" s="31"/>
+      <c r="HR15" s="31"/>
+      <c r="HS15" s="31"/>
+      <c r="HT15" s="31"/>
+      <c r="HU15" s="31"/>
+      <c r="HV15" s="31"/>
+      <c r="HW15" s="31"/>
+      <c r="HX15" s="31"/>
+      <c r="HY15" s="31"/>
+      <c r="HZ15" s="31"/>
+      <c r="IA15" s="31"/>
+      <c r="IB15" s="31"/>
+      <c r="IC15" s="31"/>
+      <c r="ID15" s="31"/>
+      <c r="IE15" s="31"/>
+      <c r="IF15" s="31"/>
+      <c r="IG15" s="31"/>
+      <c r="IH15" s="31"/>
+      <c r="II15" s="31"/>
+      <c r="IJ15" s="31"/>
+      <c r="IK15" s="31"/>
+      <c r="IL15" s="31"/>
+      <c r="IM15" s="31"/>
+      <c r="IN15" s="31"/>
+      <c r="IO15" s="31"/>
+      <c r="IP15" s="31"/>
+      <c r="IQ15" s="31"/>
+      <c r="IR15" s="31"/>
+      <c r="IS15" s="31"/>
+      <c r="IT15" s="31"/>
+      <c r="IU15" s="31"/>
+      <c r="IV15" s="31"/>
+    </row>
+    <row r="16" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="31"/>
+      <c r="CG16" s="31"/>
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="31"/>
+      <c r="CJ16" s="31"/>
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="31"/>
+      <c r="CM16" s="31"/>
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="31"/>
+      <c r="CP16" s="31"/>
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="31"/>
+      <c r="CS16" s="31"/>
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="31"/>
+      <c r="CV16" s="31"/>
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="31"/>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="31"/>
+      <c r="DB16" s="31"/>
+      <c r="DC16" s="31"/>
+      <c r="DD16" s="31"/>
+      <c r="DE16" s="31"/>
+      <c r="DF16" s="31"/>
+      <c r="DG16" s="31"/>
+      <c r="DH16" s="31"/>
+      <c r="DI16" s="31"/>
+      <c r="DJ16" s="31"/>
+      <c r="DK16" s="31"/>
+      <c r="DL16" s="31"/>
+      <c r="DM16" s="31"/>
+      <c r="DN16" s="31"/>
+      <c r="DO16" s="31"/>
+      <c r="DP16" s="31"/>
+      <c r="DQ16" s="31"/>
+      <c r="DR16" s="31"/>
+      <c r="DS16" s="31"/>
+      <c r="DT16" s="31"/>
+      <c r="DU16" s="31"/>
+      <c r="DV16" s="31"/>
+      <c r="DW16" s="31"/>
+      <c r="DX16" s="31"/>
+      <c r="DY16" s="31"/>
+      <c r="DZ16" s="31"/>
+      <c r="EA16" s="31"/>
+      <c r="EB16" s="31"/>
+      <c r="EC16" s="31"/>
+      <c r="ED16" s="31"/>
+      <c r="EE16" s="31"/>
+      <c r="EF16" s="31"/>
+      <c r="EG16" s="31"/>
+      <c r="EH16" s="31"/>
+      <c r="EI16" s="31"/>
+      <c r="EJ16" s="31"/>
+      <c r="EK16" s="31"/>
+      <c r="EL16" s="31"/>
+      <c r="EM16" s="31"/>
+      <c r="EN16" s="31"/>
+      <c r="EO16" s="31"/>
+      <c r="EP16" s="31"/>
+      <c r="EQ16" s="31"/>
+      <c r="ER16" s="31"/>
+      <c r="ES16" s="31"/>
+      <c r="ET16" s="31"/>
+      <c r="EU16" s="31"/>
+      <c r="EV16" s="31"/>
+      <c r="EW16" s="31"/>
+      <c r="EX16" s="31"/>
+      <c r="EY16" s="31"/>
+      <c r="EZ16" s="31"/>
+      <c r="FA16" s="31"/>
+      <c r="FB16" s="31"/>
+      <c r="FC16" s="31"/>
+      <c r="FD16" s="31"/>
+      <c r="FE16" s="31"/>
+      <c r="FF16" s="31"/>
+      <c r="FG16" s="31"/>
+      <c r="FH16" s="31"/>
+      <c r="FI16" s="31"/>
+      <c r="FJ16" s="31"/>
+      <c r="FK16" s="31"/>
+      <c r="FL16" s="31"/>
+      <c r="FM16" s="31"/>
+      <c r="FN16" s="31"/>
+      <c r="FO16" s="31"/>
+      <c r="FP16" s="31"/>
+      <c r="FQ16" s="31"/>
+      <c r="FR16" s="31"/>
+      <c r="FS16" s="31"/>
+      <c r="FT16" s="31"/>
+      <c r="FU16" s="31"/>
+      <c r="FV16" s="31"/>
+      <c r="FW16" s="31"/>
+      <c r="FX16" s="31"/>
+      <c r="FY16" s="31"/>
+      <c r="FZ16" s="31"/>
+      <c r="GA16" s="31"/>
+      <c r="GB16" s="31"/>
+      <c r="GC16" s="31"/>
+      <c r="GD16" s="31"/>
+      <c r="GE16" s="31"/>
+      <c r="GF16" s="31"/>
+      <c r="GG16" s="31"/>
+      <c r="GH16" s="31"/>
+      <c r="GI16" s="31"/>
+      <c r="GJ16" s="31"/>
+      <c r="GK16" s="31"/>
+      <c r="GL16" s="31"/>
+      <c r="GM16" s="31"/>
+      <c r="GN16" s="31"/>
+      <c r="GO16" s="31"/>
+      <c r="GP16" s="31"/>
+      <c r="GQ16" s="31"/>
+      <c r="GR16" s="31"/>
+      <c r="GS16" s="31"/>
+      <c r="GT16" s="31"/>
+      <c r="GU16" s="31"/>
+      <c r="GV16" s="31"/>
+      <c r="GW16" s="31"/>
+      <c r="GX16" s="31"/>
+      <c r="GY16" s="31"/>
+      <c r="GZ16" s="31"/>
+      <c r="HA16" s="31"/>
+      <c r="HB16" s="31"/>
+      <c r="HC16" s="31"/>
+      <c r="HD16" s="31"/>
+      <c r="HE16" s="31"/>
+      <c r="HF16" s="31"/>
+      <c r="HG16" s="31"/>
+      <c r="HH16" s="31"/>
+      <c r="HI16" s="31"/>
+      <c r="HJ16" s="31"/>
+      <c r="HK16" s="31"/>
+      <c r="HL16" s="31"/>
+      <c r="HM16" s="31"/>
+      <c r="HN16" s="31"/>
+      <c r="HO16" s="31"/>
+      <c r="HP16" s="31"/>
+      <c r="HQ16" s="31"/>
+      <c r="HR16" s="31"/>
+      <c r="HS16" s="31"/>
+      <c r="HT16" s="31"/>
+      <c r="HU16" s="31"/>
+      <c r="HV16" s="31"/>
+      <c r="HW16" s="31"/>
+      <c r="HX16" s="31"/>
+      <c r="HY16" s="31"/>
+      <c r="HZ16" s="31"/>
+      <c r="IA16" s="31"/>
+      <c r="IB16" s="31"/>
+      <c r="IC16" s="31"/>
+      <c r="ID16" s="31"/>
+      <c r="IE16" s="31"/>
+      <c r="IF16" s="31"/>
+      <c r="IG16" s="31"/>
+      <c r="IH16" s="31"/>
+      <c r="II16" s="31"/>
+      <c r="IJ16" s="31"/>
+      <c r="IK16" s="31"/>
+      <c r="IL16" s="31"/>
+      <c r="IM16" s="31"/>
+      <c r="IN16" s="31"/>
+      <c r="IO16" s="31"/>
+      <c r="IP16" s="31"/>
+      <c r="IQ16" s="31"/>
+      <c r="IR16" s="31"/>
+      <c r="IS16" s="31"/>
+      <c r="IT16" s="31"/>
+      <c r="IU16" s="31"/>
+      <c r="IV16" s="31"/>
+    </row>
+    <row r="17" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="31"/>
+      <c r="BI17" s="31"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="31"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="31"/>
+      <c r="CG17" s="31"/>
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="31"/>
+      <c r="CJ17" s="31"/>
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="31"/>
+      <c r="CM17" s="31"/>
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="31"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="31"/>
+      <c r="CS17" s="31"/>
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="31"/>
+      <c r="CV17" s="31"/>
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="31"/>
+      <c r="CY17" s="31"/>
+      <c r="CZ17" s="31"/>
+      <c r="DA17" s="31"/>
+      <c r="DB17" s="31"/>
+      <c r="DC17" s="31"/>
+      <c r="DD17" s="31"/>
+      <c r="DE17" s="31"/>
+      <c r="DF17" s="31"/>
+      <c r="DG17" s="31"/>
+      <c r="DH17" s="31"/>
+      <c r="DI17" s="31"/>
+      <c r="DJ17" s="31"/>
+      <c r="DK17" s="31"/>
+      <c r="DL17" s="31"/>
+      <c r="DM17" s="31"/>
+      <c r="DN17" s="31"/>
+      <c r="DO17" s="31"/>
+      <c r="DP17" s="31"/>
+      <c r="DQ17" s="31"/>
+      <c r="DR17" s="31"/>
+      <c r="DS17" s="31"/>
+      <c r="DT17" s="31"/>
+      <c r="DU17" s="31"/>
+      <c r="DV17" s="31"/>
+      <c r="DW17" s="31"/>
+      <c r="DX17" s="31"/>
+      <c r="DY17" s="31"/>
+      <c r="DZ17" s="31"/>
+      <c r="EA17" s="31"/>
+      <c r="EB17" s="31"/>
+      <c r="EC17" s="31"/>
+      <c r="ED17" s="31"/>
+      <c r="EE17" s="31"/>
+      <c r="EF17" s="31"/>
+      <c r="EG17" s="31"/>
+      <c r="EH17" s="31"/>
+      <c r="EI17" s="31"/>
+      <c r="EJ17" s="31"/>
+      <c r="EK17" s="31"/>
+      <c r="EL17" s="31"/>
+      <c r="EM17" s="31"/>
+      <c r="EN17" s="31"/>
+      <c r="EO17" s="31"/>
+      <c r="EP17" s="31"/>
+      <c r="EQ17" s="31"/>
+      <c r="ER17" s="31"/>
+      <c r="ES17" s="31"/>
+      <c r="ET17" s="31"/>
+      <c r="EU17" s="31"/>
+      <c r="EV17" s="31"/>
+      <c r="EW17" s="31"/>
+      <c r="EX17" s="31"/>
+      <c r="EY17" s="31"/>
+      <c r="EZ17" s="31"/>
+      <c r="FA17" s="31"/>
+      <c r="FB17" s="31"/>
+      <c r="FC17" s="31"/>
+      <c r="FD17" s="31"/>
+      <c r="FE17" s="31"/>
+      <c r="FF17" s="31"/>
+      <c r="FG17" s="31"/>
+      <c r="FH17" s="31"/>
+      <c r="FI17" s="31"/>
+      <c r="FJ17" s="31"/>
+      <c r="FK17" s="31"/>
+      <c r="FL17" s="31"/>
+      <c r="FM17" s="31"/>
+      <c r="FN17" s="31"/>
+      <c r="FO17" s="31"/>
+      <c r="FP17" s="31"/>
+      <c r="FQ17" s="31"/>
+      <c r="FR17" s="31"/>
+      <c r="FS17" s="31"/>
+      <c r="FT17" s="31"/>
+      <c r="FU17" s="31"/>
+      <c r="FV17" s="31"/>
+      <c r="FW17" s="31"/>
+      <c r="FX17" s="31"/>
+      <c r="FY17" s="31"/>
+      <c r="FZ17" s="31"/>
+      <c r="GA17" s="31"/>
+      <c r="GB17" s="31"/>
+      <c r="GC17" s="31"/>
+      <c r="GD17" s="31"/>
+      <c r="GE17" s="31"/>
+      <c r="GF17" s="31"/>
+      <c r="GG17" s="31"/>
+      <c r="GH17" s="31"/>
+      <c r="GI17" s="31"/>
+      <c r="GJ17" s="31"/>
+      <c r="GK17" s="31"/>
+      <c r="GL17" s="31"/>
+      <c r="GM17" s="31"/>
+      <c r="GN17" s="31"/>
+      <c r="GO17" s="31"/>
+      <c r="GP17" s="31"/>
+      <c r="GQ17" s="31"/>
+      <c r="GR17" s="31"/>
+      <c r="GS17" s="31"/>
+      <c r="GT17" s="31"/>
+      <c r="GU17" s="31"/>
+      <c r="GV17" s="31"/>
+      <c r="GW17" s="31"/>
+      <c r="GX17" s="31"/>
+      <c r="GY17" s="31"/>
+      <c r="GZ17" s="31"/>
+      <c r="HA17" s="31"/>
+      <c r="HB17" s="31"/>
+      <c r="HC17" s="31"/>
+      <c r="HD17" s="31"/>
+      <c r="HE17" s="31"/>
+      <c r="HF17" s="31"/>
+      <c r="HG17" s="31"/>
+      <c r="HH17" s="31"/>
+      <c r="HI17" s="31"/>
+      <c r="HJ17" s="31"/>
+      <c r="HK17" s="31"/>
+      <c r="HL17" s="31"/>
+      <c r="HM17" s="31"/>
+      <c r="HN17" s="31"/>
+      <c r="HO17" s="31"/>
+      <c r="HP17" s="31"/>
+      <c r="HQ17" s="31"/>
+      <c r="HR17" s="31"/>
+      <c r="HS17" s="31"/>
+      <c r="HT17" s="31"/>
+      <c r="HU17" s="31"/>
+      <c r="HV17" s="31"/>
+      <c r="HW17" s="31"/>
+      <c r="HX17" s="31"/>
+      <c r="HY17" s="31"/>
+      <c r="HZ17" s="31"/>
+      <c r="IA17" s="31"/>
+      <c r="IB17" s="31"/>
+      <c r="IC17" s="31"/>
+      <c r="ID17" s="31"/>
+      <c r="IE17" s="31"/>
+      <c r="IF17" s="31"/>
+      <c r="IG17" s="31"/>
+      <c r="IH17" s="31"/>
+      <c r="II17" s="31"/>
+      <c r="IJ17" s="31"/>
+      <c r="IK17" s="31"/>
+      <c r="IL17" s="31"/>
+      <c r="IM17" s="31"/>
+      <c r="IN17" s="31"/>
+      <c r="IO17" s="31"/>
+      <c r="IP17" s="31"/>
+      <c r="IQ17" s="31"/>
+      <c r="IR17" s="31"/>
+      <c r="IS17" s="31"/>
+      <c r="IT17" s="31"/>
+      <c r="IU17" s="31"/>
+      <c r="IV17" s="31"/>
+    </row>
+    <row r="18" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="31"/>
+      <c r="CJ18" s="31"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="31"/>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="31"/>
+      <c r="CP18" s="31"/>
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="31"/>
+      <c r="CS18" s="31"/>
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="31"/>
+      <c r="CV18" s="31"/>
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="31"/>
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="31"/>
+      <c r="DB18" s="31"/>
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="31"/>
+      <c r="DE18" s="31"/>
+      <c r="DF18" s="31"/>
+      <c r="DG18" s="31"/>
+      <c r="DH18" s="31"/>
+      <c r="DI18" s="31"/>
+      <c r="DJ18" s="31"/>
+      <c r="DK18" s="31"/>
+      <c r="DL18" s="31"/>
+      <c r="DM18" s="31"/>
+      <c r="DN18" s="31"/>
+      <c r="DO18" s="31"/>
+      <c r="DP18" s="31"/>
+      <c r="DQ18" s="31"/>
+      <c r="DR18" s="31"/>
+      <c r="DS18" s="31"/>
+      <c r="DT18" s="31"/>
+      <c r="DU18" s="31"/>
+      <c r="DV18" s="31"/>
+      <c r="DW18" s="31"/>
+      <c r="DX18" s="31"/>
+      <c r="DY18" s="31"/>
+      <c r="DZ18" s="31"/>
+      <c r="EA18" s="31"/>
+      <c r="EB18" s="31"/>
+      <c r="EC18" s="31"/>
+      <c r="ED18" s="31"/>
+      <c r="EE18" s="31"/>
+      <c r="EF18" s="31"/>
+      <c r="EG18" s="31"/>
+      <c r="EH18" s="31"/>
+      <c r="EI18" s="31"/>
+      <c r="EJ18" s="31"/>
+      <c r="EK18" s="31"/>
+      <c r="EL18" s="31"/>
+      <c r="EM18" s="31"/>
+      <c r="EN18" s="31"/>
+      <c r="EO18" s="31"/>
+      <c r="EP18" s="31"/>
+      <c r="EQ18" s="31"/>
+      <c r="ER18" s="31"/>
+      <c r="ES18" s="31"/>
+      <c r="ET18" s="31"/>
+      <c r="EU18" s="31"/>
+      <c r="EV18" s="31"/>
+      <c r="EW18" s="31"/>
+      <c r="EX18" s="31"/>
+      <c r="EY18" s="31"/>
+      <c r="EZ18" s="31"/>
+      <c r="FA18" s="31"/>
+      <c r="FB18" s="31"/>
+      <c r="FC18" s="31"/>
+      <c r="FD18" s="31"/>
+      <c r="FE18" s="31"/>
+      <c r="FF18" s="31"/>
+      <c r="FG18" s="31"/>
+      <c r="FH18" s="31"/>
+      <c r="FI18" s="31"/>
+      <c r="FJ18" s="31"/>
+      <c r="FK18" s="31"/>
+      <c r="FL18" s="31"/>
+      <c r="FM18" s="31"/>
+      <c r="FN18" s="31"/>
+      <c r="FO18" s="31"/>
+      <c r="FP18" s="31"/>
+      <c r="FQ18" s="31"/>
+      <c r="FR18" s="31"/>
+      <c r="FS18" s="31"/>
+      <c r="FT18" s="31"/>
+      <c r="FU18" s="31"/>
+      <c r="FV18" s="31"/>
+      <c r="FW18" s="31"/>
+      <c r="FX18" s="31"/>
+      <c r="FY18" s="31"/>
+      <c r="FZ18" s="31"/>
+      <c r="GA18" s="31"/>
+      <c r="GB18" s="31"/>
+      <c r="GC18" s="31"/>
+      <c r="GD18" s="31"/>
+      <c r="GE18" s="31"/>
+      <c r="GF18" s="31"/>
+      <c r="GG18" s="31"/>
+      <c r="GH18" s="31"/>
+      <c r="GI18" s="31"/>
+      <c r="GJ18" s="31"/>
+      <c r="GK18" s="31"/>
+      <c r="GL18" s="31"/>
+      <c r="GM18" s="31"/>
+      <c r="GN18" s="31"/>
+      <c r="GO18" s="31"/>
+      <c r="GP18" s="31"/>
+      <c r="GQ18" s="31"/>
+      <c r="GR18" s="31"/>
+      <c r="GS18" s="31"/>
+      <c r="GT18" s="31"/>
+      <c r="GU18" s="31"/>
+      <c r="GV18" s="31"/>
+      <c r="GW18" s="31"/>
+      <c r="GX18" s="31"/>
+      <c r="GY18" s="31"/>
+      <c r="GZ18" s="31"/>
+      <c r="HA18" s="31"/>
+      <c r="HB18" s="31"/>
+      <c r="HC18" s="31"/>
+      <c r="HD18" s="31"/>
+      <c r="HE18" s="31"/>
+      <c r="HF18" s="31"/>
+      <c r="HG18" s="31"/>
+      <c r="HH18" s="31"/>
+      <c r="HI18" s="31"/>
+      <c r="HJ18" s="31"/>
+      <c r="HK18" s="31"/>
+      <c r="HL18" s="31"/>
+      <c r="HM18" s="31"/>
+      <c r="HN18" s="31"/>
+      <c r="HO18" s="31"/>
+      <c r="HP18" s="31"/>
+      <c r="HQ18" s="31"/>
+      <c r="HR18" s="31"/>
+      <c r="HS18" s="31"/>
+      <c r="HT18" s="31"/>
+      <c r="HU18" s="31"/>
+      <c r="HV18" s="31"/>
+      <c r="HW18" s="31"/>
+      <c r="HX18" s="31"/>
+      <c r="HY18" s="31"/>
+      <c r="HZ18" s="31"/>
+      <c r="IA18" s="31"/>
+      <c r="IB18" s="31"/>
+      <c r="IC18" s="31"/>
+      <c r="ID18" s="31"/>
+      <c r="IE18" s="31"/>
+      <c r="IF18" s="31"/>
+      <c r="IG18" s="31"/>
+      <c r="IH18" s="31"/>
+      <c r="II18" s="31"/>
+      <c r="IJ18" s="31"/>
+      <c r="IK18" s="31"/>
+      <c r="IL18" s="31"/>
+      <c r="IM18" s="31"/>
+      <c r="IN18" s="31"/>
+      <c r="IO18" s="31"/>
+      <c r="IP18" s="31"/>
+      <c r="IQ18" s="31"/>
+      <c r="IR18" s="31"/>
+      <c r="IS18" s="31"/>
+      <c r="IT18" s="31"/>
+      <c r="IU18" s="31"/>
+      <c r="IV18" s="31"/>
+    </row>
+    <row r="19" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="31"/>
+      <c r="CG19" s="31"/>
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="31"/>
+      <c r="CJ19" s="31"/>
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="31"/>
+      <c r="CM19" s="31"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="31"/>
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="31"/>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="31"/>
+      <c r="DB19" s="31"/>
+      <c r="DC19" s="31"/>
+      <c r="DD19" s="31"/>
+      <c r="DE19" s="31"/>
+      <c r="DF19" s="31"/>
+      <c r="DG19" s="31"/>
+      <c r="DH19" s="31"/>
+      <c r="DI19" s="31"/>
+      <c r="DJ19" s="31"/>
+      <c r="DK19" s="31"/>
+      <c r="DL19" s="31"/>
+      <c r="DM19" s="31"/>
+      <c r="DN19" s="31"/>
+      <c r="DO19" s="31"/>
+      <c r="DP19" s="31"/>
+      <c r="DQ19" s="31"/>
+      <c r="DR19" s="31"/>
+      <c r="DS19" s="31"/>
+      <c r="DT19" s="31"/>
+      <c r="DU19" s="31"/>
+      <c r="DV19" s="31"/>
+      <c r="DW19" s="31"/>
+      <c r="DX19" s="31"/>
+      <c r="DY19" s="31"/>
+      <c r="DZ19" s="31"/>
+      <c r="EA19" s="31"/>
+      <c r="EB19" s="31"/>
+      <c r="EC19" s="31"/>
+      <c r="ED19" s="31"/>
+      <c r="EE19" s="31"/>
+      <c r="EF19" s="31"/>
+      <c r="EG19" s="31"/>
+      <c r="EH19" s="31"/>
+      <c r="EI19" s="31"/>
+      <c r="EJ19" s="31"/>
+      <c r="EK19" s="31"/>
+      <c r="EL19" s="31"/>
+      <c r="EM19" s="31"/>
+      <c r="EN19" s="31"/>
+      <c r="EO19" s="31"/>
+      <c r="EP19" s="31"/>
+      <c r="EQ19" s="31"/>
+      <c r="ER19" s="31"/>
+      <c r="ES19" s="31"/>
+      <c r="ET19" s="31"/>
+      <c r="EU19" s="31"/>
+      <c r="EV19" s="31"/>
+      <c r="EW19" s="31"/>
+      <c r="EX19" s="31"/>
+      <c r="EY19" s="31"/>
+      <c r="EZ19" s="31"/>
+      <c r="FA19" s="31"/>
+      <c r="FB19" s="31"/>
+      <c r="FC19" s="31"/>
+      <c r="FD19" s="31"/>
+      <c r="FE19" s="31"/>
+      <c r="FF19" s="31"/>
+      <c r="FG19" s="31"/>
+      <c r="FH19" s="31"/>
+      <c r="FI19" s="31"/>
+      <c r="FJ19" s="31"/>
+      <c r="FK19" s="31"/>
+      <c r="FL19" s="31"/>
+      <c r="FM19" s="31"/>
+      <c r="FN19" s="31"/>
+      <c r="FO19" s="31"/>
+      <c r="FP19" s="31"/>
+      <c r="FQ19" s="31"/>
+      <c r="FR19" s="31"/>
+      <c r="FS19" s="31"/>
+      <c r="FT19" s="31"/>
+      <c r="FU19" s="31"/>
+      <c r="FV19" s="31"/>
+      <c r="FW19" s="31"/>
+      <c r="FX19" s="31"/>
+      <c r="FY19" s="31"/>
+      <c r="FZ19" s="31"/>
+      <c r="GA19" s="31"/>
+      <c r="GB19" s="31"/>
+      <c r="GC19" s="31"/>
+      <c r="GD19" s="31"/>
+      <c r="GE19" s="31"/>
+      <c r="GF19" s="31"/>
+      <c r="GG19" s="31"/>
+      <c r="GH19" s="31"/>
+      <c r="GI19" s="31"/>
+      <c r="GJ19" s="31"/>
+      <c r="GK19" s="31"/>
+      <c r="GL19" s="31"/>
+      <c r="GM19" s="31"/>
+      <c r="GN19" s="31"/>
+      <c r="GO19" s="31"/>
+      <c r="GP19" s="31"/>
+      <c r="GQ19" s="31"/>
+      <c r="GR19" s="31"/>
+      <c r="GS19" s="31"/>
+      <c r="GT19" s="31"/>
+      <c r="GU19" s="31"/>
+      <c r="GV19" s="31"/>
+      <c r="GW19" s="31"/>
+      <c r="GX19" s="31"/>
+      <c r="GY19" s="31"/>
+      <c r="GZ19" s="31"/>
+      <c r="HA19" s="31"/>
+      <c r="HB19" s="31"/>
+      <c r="HC19" s="31"/>
+      <c r="HD19" s="31"/>
+      <c r="HE19" s="31"/>
+      <c r="HF19" s="31"/>
+      <c r="HG19" s="31"/>
+      <c r="HH19" s="31"/>
+      <c r="HI19" s="31"/>
+      <c r="HJ19" s="31"/>
+      <c r="HK19" s="31"/>
+      <c r="HL19" s="31"/>
+      <c r="HM19" s="31"/>
+      <c r="HN19" s="31"/>
+      <c r="HO19" s="31"/>
+      <c r="HP19" s="31"/>
+      <c r="HQ19" s="31"/>
+      <c r="HR19" s="31"/>
+      <c r="HS19" s="31"/>
+      <c r="HT19" s="31"/>
+      <c r="HU19" s="31"/>
+      <c r="HV19" s="31"/>
+      <c r="HW19" s="31"/>
+      <c r="HX19" s="31"/>
+      <c r="HY19" s="31"/>
+      <c r="HZ19" s="31"/>
+      <c r="IA19" s="31"/>
+      <c r="IB19" s="31"/>
+      <c r="IC19" s="31"/>
+      <c r="ID19" s="31"/>
+      <c r="IE19" s="31"/>
+      <c r="IF19" s="31"/>
+      <c r="IG19" s="31"/>
+      <c r="IH19" s="31"/>
+      <c r="II19" s="31"/>
+      <c r="IJ19" s="31"/>
+      <c r="IK19" s="31"/>
+      <c r="IL19" s="31"/>
+      <c r="IM19" s="31"/>
+      <c r="IN19" s="31"/>
+      <c r="IO19" s="31"/>
+      <c r="IP19" s="31"/>
+      <c r="IQ19" s="31"/>
+      <c r="IR19" s="31"/>
+      <c r="IS19" s="31"/>
+      <c r="IT19" s="31"/>
+      <c r="IU19" s="31"/>
+      <c r="IV19" s="31"/>
+    </row>
+    <row r="20" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="31"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="31"/>
+      <c r="BX26" s="31"/>
+      <c r="BY26" s="31"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="31"/>
+      <c r="CB26" s="31"/>
+      <c r="CC26" s="31"/>
+      <c r="CD26" s="31"/>
+      <c r="CE26" s="31"/>
+      <c r="CF26" s="31"/>
+      <c r="CG26" s="31"/>
+      <c r="CH26" s="31"/>
+      <c r="CI26" s="31"/>
+      <c r="CJ26" s="31"/>
+      <c r="CK26" s="31"/>
+      <c r="CL26" s="31"/>
+      <c r="CM26" s="31"/>
+      <c r="CN26" s="31"/>
+      <c r="CO26" s="31"/>
+      <c r="CP26" s="31"/>
+      <c r="CQ26" s="31"/>
+      <c r="CR26" s="31"/>
+      <c r="CS26" s="31"/>
+      <c r="CT26" s="31"/>
+      <c r="CU26" s="31"/>
+      <c r="CV26" s="31"/>
+      <c r="CW26" s="31"/>
+      <c r="CX26" s="31"/>
+      <c r="CY26" s="31"/>
+      <c r="CZ26" s="31"/>
+      <c r="DA26" s="31"/>
+      <c r="DB26" s="31"/>
+      <c r="DC26" s="31"/>
+      <c r="DD26" s="31"/>
+      <c r="DE26" s="31"/>
+      <c r="DF26" s="31"/>
+      <c r="DG26" s="31"/>
+      <c r="DH26" s="31"/>
+      <c r="DI26" s="31"/>
+      <c r="DJ26" s="31"/>
+      <c r="DK26" s="31"/>
+      <c r="DL26" s="31"/>
+      <c r="DM26" s="31"/>
+      <c r="DN26" s="31"/>
+      <c r="DO26" s="31"/>
+      <c r="DP26" s="31"/>
+      <c r="DQ26" s="31"/>
+      <c r="DR26" s="31"/>
+      <c r="DS26" s="31"/>
+      <c r="DT26" s="31"/>
+      <c r="DU26" s="31"/>
+      <c r="DV26" s="31"/>
+      <c r="DW26" s="31"/>
+      <c r="DX26" s="31"/>
+      <c r="DY26" s="31"/>
+      <c r="DZ26" s="31"/>
+      <c r="EA26" s="31"/>
+      <c r="EB26" s="31"/>
+      <c r="EC26" s="31"/>
+      <c r="ED26" s="31"/>
+      <c r="EE26" s="31"/>
+      <c r="EF26" s="31"/>
+      <c r="EG26" s="31"/>
+      <c r="EH26" s="31"/>
+      <c r="EI26" s="31"/>
+      <c r="EJ26" s="31"/>
+      <c r="EK26" s="31"/>
+      <c r="EL26" s="31"/>
+      <c r="EM26" s="31"/>
+      <c r="EN26" s="31"/>
+      <c r="EO26" s="31"/>
+      <c r="EP26" s="31"/>
+      <c r="EQ26" s="31"/>
+      <c r="ER26" s="31"/>
+      <c r="ES26" s="31"/>
+      <c r="ET26" s="31"/>
+      <c r="EU26" s="31"/>
+      <c r="EV26" s="31"/>
+      <c r="EW26" s="31"/>
+      <c r="EX26" s="31"/>
+      <c r="EY26" s="31"/>
+      <c r="EZ26" s="31"/>
+      <c r="FA26" s="31"/>
+      <c r="FB26" s="31"/>
+      <c r="FC26" s="31"/>
+      <c r="FD26" s="31"/>
+      <c r="FE26" s="31"/>
+      <c r="FF26" s="31"/>
+      <c r="FG26" s="31"/>
+      <c r="FH26" s="31"/>
+      <c r="FI26" s="31"/>
+      <c r="FJ26" s="31"/>
+      <c r="FK26" s="31"/>
+      <c r="FL26" s="31"/>
+      <c r="FM26" s="31"/>
+      <c r="FN26" s="31"/>
+      <c r="FO26" s="31"/>
+      <c r="FP26" s="31"/>
+      <c r="FQ26" s="31"/>
+      <c r="FR26" s="31"/>
+      <c r="FS26" s="31"/>
+      <c r="FT26" s="31"/>
+      <c r="FU26" s="31"/>
+      <c r="FV26" s="31"/>
+      <c r="FW26" s="31"/>
+      <c r="FX26" s="31"/>
+      <c r="FY26" s="31"/>
+      <c r="FZ26" s="31"/>
+      <c r="GA26" s="31"/>
+      <c r="GB26" s="31"/>
+      <c r="GC26" s="31"/>
+      <c r="GD26" s="31"/>
+      <c r="GE26" s="31"/>
+      <c r="GF26" s="31"/>
+      <c r="GG26" s="31"/>
+      <c r="GH26" s="31"/>
+      <c r="GI26" s="31"/>
+      <c r="GJ26" s="31"/>
+      <c r="GK26" s="31"/>
+      <c r="GL26" s="31"/>
+      <c r="GM26" s="31"/>
+      <c r="GN26" s="31"/>
+      <c r="GO26" s="31"/>
+      <c r="GP26" s="31"/>
+      <c r="GQ26" s="31"/>
+      <c r="GR26" s="31"/>
+      <c r="GS26" s="31"/>
+      <c r="GT26" s="31"/>
+      <c r="GU26" s="31"/>
+      <c r="GV26" s="31"/>
+      <c r="GW26" s="31"/>
+      <c r="GX26" s="31"/>
+      <c r="GY26" s="31"/>
+      <c r="GZ26" s="31"/>
+      <c r="HA26" s="31"/>
+      <c r="HB26" s="31"/>
+      <c r="HC26" s="31"/>
+      <c r="HD26" s="31"/>
+      <c r="HE26" s="31"/>
+      <c r="HF26" s="31"/>
+      <c r="HG26" s="31"/>
+      <c r="HH26" s="31"/>
+      <c r="HI26" s="31"/>
+      <c r="HJ26" s="31"/>
+      <c r="HK26" s="31"/>
+      <c r="HL26" s="31"/>
+      <c r="HM26" s="31"/>
+      <c r="HN26" s="31"/>
+      <c r="HO26" s="31"/>
+      <c r="HP26" s="31"/>
+      <c r="HQ26" s="31"/>
+      <c r="HR26" s="31"/>
+      <c r="HS26" s="31"/>
+      <c r="HT26" s="31"/>
+      <c r="HU26" s="31"/>
+      <c r="HV26" s="31"/>
+      <c r="HW26" s="31"/>
+      <c r="HX26" s="31"/>
+      <c r="HY26" s="31"/>
+      <c r="HZ26" s="31"/>
+      <c r="IA26" s="31"/>
+      <c r="IB26" s="31"/>
+      <c r="IC26" s="31"/>
+      <c r="ID26" s="31"/>
+      <c r="IE26" s="31"/>
+      <c r="IF26" s="31"/>
+      <c r="IG26" s="31"/>
+      <c r="IH26" s="31"/>
+      <c r="II26" s="31"/>
+      <c r="IJ26" s="31"/>
+      <c r="IK26" s="31"/>
+      <c r="IL26" s="31"/>
+      <c r="IM26" s="31"/>
+      <c r="IN26" s="31"/>
+      <c r="IO26" s="31"/>
+      <c r="IP26" s="31"/>
+      <c r="IQ26" s="31"/>
+      <c r="IR26" s="31"/>
+      <c r="IS26" s="31"/>
+      <c r="IT26" s="31"/>
+      <c r="IU26" s="31"/>
+      <c r="IV26" s="31"/>
+    </row>
+    <row r="27" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="31"/>
+      <c r="BP27" s="31"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="31"/>
+      <c r="BX27" s="31"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="31"/>
+      <c r="CF27" s="31"/>
+      <c r="CG27" s="31"/>
+      <c r="CH27" s="31"/>
+      <c r="CI27" s="31"/>
+      <c r="CJ27" s="31"/>
+      <c r="CK27" s="31"/>
+      <c r="CL27" s="31"/>
+      <c r="CM27" s="31"/>
+      <c r="CN27" s="31"/>
+      <c r="CO27" s="31"/>
+      <c r="CP27" s="31"/>
+      <c r="CQ27" s="31"/>
+      <c r="CR27" s="31"/>
+      <c r="CS27" s="31"/>
+      <c r="CT27" s="31"/>
+      <c r="CU27" s="31"/>
+      <c r="CV27" s="31"/>
+      <c r="CW27" s="31"/>
+      <c r="CX27" s="31"/>
+      <c r="CY27" s="31"/>
+      <c r="CZ27" s="31"/>
+      <c r="DA27" s="31"/>
+      <c r="DB27" s="31"/>
+      <c r="DC27" s="31"/>
+      <c r="DD27" s="31"/>
+      <c r="DE27" s="31"/>
+      <c r="DF27" s="31"/>
+      <c r="DG27" s="31"/>
+      <c r="DH27" s="31"/>
+      <c r="DI27" s="31"/>
+      <c r="DJ27" s="31"/>
+      <c r="DK27" s="31"/>
+      <c r="DL27" s="31"/>
+      <c r="DM27" s="31"/>
+      <c r="DN27" s="31"/>
+      <c r="DO27" s="31"/>
+      <c r="DP27" s="31"/>
+      <c r="DQ27" s="31"/>
+      <c r="DR27" s="31"/>
+      <c r="DS27" s="31"/>
+      <c r="DT27" s="31"/>
+      <c r="DU27" s="31"/>
+      <c r="DV27" s="31"/>
+      <c r="DW27" s="31"/>
+      <c r="DX27" s="31"/>
+      <c r="DY27" s="31"/>
+      <c r="DZ27" s="31"/>
+      <c r="EA27" s="31"/>
+      <c r="EB27" s="31"/>
+      <c r="EC27" s="31"/>
+      <c r="ED27" s="31"/>
+      <c r="EE27" s="31"/>
+      <c r="EF27" s="31"/>
+      <c r="EG27" s="31"/>
+      <c r="EH27" s="31"/>
+      <c r="EI27" s="31"/>
+      <c r="EJ27" s="31"/>
+      <c r="EK27" s="31"/>
+      <c r="EL27" s="31"/>
+      <c r="EM27" s="31"/>
+      <c r="EN27" s="31"/>
+      <c r="EO27" s="31"/>
+      <c r="EP27" s="31"/>
+      <c r="EQ27" s="31"/>
+      <c r="ER27" s="31"/>
+      <c r="ES27" s="31"/>
+      <c r="ET27" s="31"/>
+      <c r="EU27" s="31"/>
+      <c r="EV27" s="31"/>
+      <c r="EW27" s="31"/>
+      <c r="EX27" s="31"/>
+      <c r="EY27" s="31"/>
+      <c r="EZ27" s="31"/>
+      <c r="FA27" s="31"/>
+      <c r="FB27" s="31"/>
+      <c r="FC27" s="31"/>
+      <c r="FD27" s="31"/>
+      <c r="FE27" s="31"/>
+      <c r="FF27" s="31"/>
+      <c r="FG27" s="31"/>
+      <c r="FH27" s="31"/>
+      <c r="FI27" s="31"/>
+      <c r="FJ27" s="31"/>
+      <c r="FK27" s="31"/>
+      <c r="FL27" s="31"/>
+      <c r="FM27" s="31"/>
+      <c r="FN27" s="31"/>
+      <c r="FO27" s="31"/>
+      <c r="FP27" s="31"/>
+      <c r="FQ27" s="31"/>
+      <c r="FR27" s="31"/>
+      <c r="FS27" s="31"/>
+      <c r="FT27" s="31"/>
+      <c r="FU27" s="31"/>
+      <c r="FV27" s="31"/>
+      <c r="FW27" s="31"/>
+      <c r="FX27" s="31"/>
+      <c r="FY27" s="31"/>
+      <c r="FZ27" s="31"/>
+      <c r="GA27" s="31"/>
+      <c r="GB27" s="31"/>
+      <c r="GC27" s="31"/>
+      <c r="GD27" s="31"/>
+      <c r="GE27" s="31"/>
+      <c r="GF27" s="31"/>
+      <c r="GG27" s="31"/>
+      <c r="GH27" s="31"/>
+      <c r="GI27" s="31"/>
+      <c r="GJ27" s="31"/>
+      <c r="GK27" s="31"/>
+      <c r="GL27" s="31"/>
+      <c r="GM27" s="31"/>
+      <c r="GN27" s="31"/>
+      <c r="GO27" s="31"/>
+      <c r="GP27" s="31"/>
+      <c r="GQ27" s="31"/>
+      <c r="GR27" s="31"/>
+      <c r="GS27" s="31"/>
+      <c r="GT27" s="31"/>
+      <c r="GU27" s="31"/>
+      <c r="GV27" s="31"/>
+      <c r="GW27" s="31"/>
+      <c r="GX27" s="31"/>
+      <c r="GY27" s="31"/>
+      <c r="GZ27" s="31"/>
+      <c r="HA27" s="31"/>
+      <c r="HB27" s="31"/>
+      <c r="HC27" s="31"/>
+      <c r="HD27" s="31"/>
+      <c r="HE27" s="31"/>
+      <c r="HF27" s="31"/>
+      <c r="HG27" s="31"/>
+      <c r="HH27" s="31"/>
+      <c r="HI27" s="31"/>
+      <c r="HJ27" s="31"/>
+      <c r="HK27" s="31"/>
+      <c r="HL27" s="31"/>
+      <c r="HM27" s="31"/>
+      <c r="HN27" s="31"/>
+      <c r="HO27" s="31"/>
+      <c r="HP27" s="31"/>
+      <c r="HQ27" s="31"/>
+      <c r="HR27" s="31"/>
+      <c r="HS27" s="31"/>
+      <c r="HT27" s="31"/>
+      <c r="HU27" s="31"/>
+      <c r="HV27" s="31"/>
+      <c r="HW27" s="31"/>
+      <c r="HX27" s="31"/>
+      <c r="HY27" s="31"/>
+      <c r="HZ27" s="31"/>
+      <c r="IA27" s="31"/>
+      <c r="IB27" s="31"/>
+      <c r="IC27" s="31"/>
+      <c r="ID27" s="31"/>
+      <c r="IE27" s="31"/>
+      <c r="IF27" s="31"/>
+      <c r="IG27" s="31"/>
+      <c r="IH27" s="31"/>
+      <c r="II27" s="31"/>
+      <c r="IJ27" s="31"/>
+      <c r="IK27" s="31"/>
+      <c r="IL27" s="31"/>
+      <c r="IM27" s="31"/>
+      <c r="IN27" s="31"/>
+      <c r="IO27" s="31"/>
+      <c r="IP27" s="31"/>
+      <c r="IQ27" s="31"/>
+      <c r="IR27" s="31"/>
+      <c r="IS27" s="31"/>
+      <c r="IT27" s="31"/>
+      <c r="IU27" s="31"/>
+      <c r="IV27" s="31"/>
+    </row>
+    <row r="28" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="31"/>
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
+      <c r="BR28" s="31"/>
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="31"/>
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="31"/>
+      <c r="BY28" s="31"/>
+      <c r="BZ28" s="31"/>
+      <c r="CA28" s="31"/>
+      <c r="CB28" s="31"/>
+      <c r="CC28" s="31"/>
+      <c r="CD28" s="31"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
+      <c r="CJ28" s="31"/>
+      <c r="CK28" s="31"/>
+      <c r="CL28" s="31"/>
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
+      <c r="CS28" s="31"/>
+      <c r="CT28" s="31"/>
+      <c r="CU28" s="31"/>
+      <c r="CV28" s="31"/>
+      <c r="CW28" s="31"/>
+      <c r="CX28" s="31"/>
+      <c r="CY28" s="31"/>
+      <c r="CZ28" s="31"/>
+      <c r="DA28" s="31"/>
+      <c r="DB28" s="31"/>
+      <c r="DC28" s="31"/>
+      <c r="DD28" s="31"/>
+      <c r="DE28" s="31"/>
+      <c r="DF28" s="31"/>
+      <c r="DG28" s="31"/>
+      <c r="DH28" s="31"/>
+      <c r="DI28" s="31"/>
+      <c r="DJ28" s="31"/>
+      <c r="DK28" s="31"/>
+      <c r="DL28" s="31"/>
+      <c r="DM28" s="31"/>
+      <c r="DN28" s="31"/>
+      <c r="DO28" s="31"/>
+      <c r="DP28" s="31"/>
+      <c r="DQ28" s="31"/>
+      <c r="DR28" s="31"/>
+      <c r="DS28" s="31"/>
+      <c r="DT28" s="31"/>
+      <c r="DU28" s="31"/>
+      <c r="DV28" s="31"/>
+      <c r="DW28" s="31"/>
+      <c r="DX28" s="31"/>
+      <c r="DY28" s="31"/>
+      <c r="DZ28" s="31"/>
+      <c r="EA28" s="31"/>
+      <c r="EB28" s="31"/>
+      <c r="EC28" s="31"/>
+      <c r="ED28" s="31"/>
+      <c r="EE28" s="31"/>
+      <c r="EF28" s="31"/>
+      <c r="EG28" s="31"/>
+      <c r="EH28" s="31"/>
+      <c r="EI28" s="31"/>
+      <c r="EJ28" s="31"/>
+      <c r="EK28" s="31"/>
+      <c r="EL28" s="31"/>
+      <c r="EM28" s="31"/>
+      <c r="EN28" s="31"/>
+      <c r="EO28" s="31"/>
+      <c r="EP28" s="31"/>
+      <c r="EQ28" s="31"/>
+      <c r="ER28" s="31"/>
+      <c r="ES28" s="31"/>
+      <c r="ET28" s="31"/>
+      <c r="EU28" s="31"/>
+      <c r="EV28" s="31"/>
+      <c r="EW28" s="31"/>
+      <c r="EX28" s="31"/>
+      <c r="EY28" s="31"/>
+      <c r="EZ28" s="31"/>
+      <c r="FA28" s="31"/>
+      <c r="FB28" s="31"/>
+      <c r="FC28" s="31"/>
+      <c r="FD28" s="31"/>
+      <c r="FE28" s="31"/>
+      <c r="FF28" s="31"/>
+      <c r="FG28" s="31"/>
+      <c r="FH28" s="31"/>
+      <c r="FI28" s="31"/>
+      <c r="FJ28" s="31"/>
+      <c r="FK28" s="31"/>
+      <c r="FL28" s="31"/>
+      <c r="FM28" s="31"/>
+      <c r="FN28" s="31"/>
+      <c r="FO28" s="31"/>
+      <c r="FP28" s="31"/>
+      <c r="FQ28" s="31"/>
+      <c r="FR28" s="31"/>
+      <c r="FS28" s="31"/>
+      <c r="FT28" s="31"/>
+      <c r="FU28" s="31"/>
+      <c r="FV28" s="31"/>
+      <c r="FW28" s="31"/>
+      <c r="FX28" s="31"/>
+      <c r="FY28" s="31"/>
+      <c r="FZ28" s="31"/>
+      <c r="GA28" s="31"/>
+      <c r="GB28" s="31"/>
+      <c r="GC28" s="31"/>
+      <c r="GD28" s="31"/>
+      <c r="GE28" s="31"/>
+      <c r="GF28" s="31"/>
+      <c r="GG28" s="31"/>
+      <c r="GH28" s="31"/>
+      <c r="GI28" s="31"/>
+      <c r="GJ28" s="31"/>
+      <c r="GK28" s="31"/>
+      <c r="GL28" s="31"/>
+      <c r="GM28" s="31"/>
+      <c r="GN28" s="31"/>
+      <c r="GO28" s="31"/>
+      <c r="GP28" s="31"/>
+      <c r="GQ28" s="31"/>
+      <c r="GR28" s="31"/>
+      <c r="GS28" s="31"/>
+      <c r="GT28" s="31"/>
+      <c r="GU28" s="31"/>
+      <c r="GV28" s="31"/>
+      <c r="GW28" s="31"/>
+      <c r="GX28" s="31"/>
+      <c r="GY28" s="31"/>
+      <c r="GZ28" s="31"/>
+      <c r="HA28" s="31"/>
+      <c r="HB28" s="31"/>
+      <c r="HC28" s="31"/>
+      <c r="HD28" s="31"/>
+      <c r="HE28" s="31"/>
+      <c r="HF28" s="31"/>
+      <c r="HG28" s="31"/>
+      <c r="HH28" s="31"/>
+      <c r="HI28" s="31"/>
+      <c r="HJ28" s="31"/>
+      <c r="HK28" s="31"/>
+      <c r="HL28" s="31"/>
+      <c r="HM28" s="31"/>
+      <c r="HN28" s="31"/>
+      <c r="HO28" s="31"/>
+      <c r="HP28" s="31"/>
+      <c r="HQ28" s="31"/>
+      <c r="HR28" s="31"/>
+      <c r="HS28" s="31"/>
+      <c r="HT28" s="31"/>
+      <c r="HU28" s="31"/>
+      <c r="HV28" s="31"/>
+      <c r="HW28" s="31"/>
+      <c r="HX28" s="31"/>
+      <c r="HY28" s="31"/>
+      <c r="HZ28" s="31"/>
+      <c r="IA28" s="31"/>
+      <c r="IB28" s="31"/>
+      <c r="IC28" s="31"/>
+      <c r="ID28" s="31"/>
+      <c r="IE28" s="31"/>
+      <c r="IF28" s="31"/>
+      <c r="IG28" s="31"/>
+      <c r="IH28" s="31"/>
+      <c r="II28" s="31"/>
+      <c r="IJ28" s="31"/>
+      <c r="IK28" s="31"/>
+      <c r="IL28" s="31"/>
+      <c r="IM28" s="31"/>
+      <c r="IN28" s="31"/>
+      <c r="IO28" s="31"/>
+      <c r="IP28" s="31"/>
+      <c r="IQ28" s="31"/>
+      <c r="IR28" s="31"/>
+      <c r="IS28" s="31"/>
+      <c r="IT28" s="31"/>
+      <c r="IU28" s="31"/>
+      <c r="IV28" s="31"/>
+    </row>
+    <row r="29" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="31"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="31"/>
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="31"/>
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="31"/>
+      <c r="BK29" s="31"/>
+      <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BN29" s="31"/>
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="31"/>
+      <c r="BU29" s="31"/>
+      <c r="BV29" s="31"/>
+      <c r="BW29" s="31"/>
+      <c r="BX29" s="31"/>
+      <c r="BY29" s="31"/>
+      <c r="BZ29" s="31"/>
+      <c r="CA29" s="31"/>
+      <c r="CB29" s="31"/>
+      <c r="CC29" s="31"/>
+      <c r="CD29" s="31"/>
+      <c r="CE29" s="31"/>
+      <c r="CF29" s="31"/>
+      <c r="CG29" s="31"/>
+      <c r="CH29" s="31"/>
+      <c r="CI29" s="31"/>
+      <c r="CJ29" s="31"/>
+      <c r="CK29" s="31"/>
+      <c r="CL29" s="31"/>
+      <c r="CM29" s="31"/>
+      <c r="CN29" s="31"/>
+      <c r="CO29" s="31"/>
+      <c r="CP29" s="31"/>
+      <c r="CQ29" s="31"/>
+      <c r="CR29" s="31"/>
+      <c r="CS29" s="31"/>
+      <c r="CT29" s="31"/>
+      <c r="CU29" s="31"/>
+      <c r="CV29" s="31"/>
+      <c r="CW29" s="31"/>
+      <c r="CX29" s="31"/>
+      <c r="CY29" s="31"/>
+      <c r="CZ29" s="31"/>
+      <c r="DA29" s="31"/>
+      <c r="DB29" s="31"/>
+      <c r="DC29" s="31"/>
+      <c r="DD29" s="31"/>
+      <c r="DE29" s="31"/>
+      <c r="DF29" s="31"/>
+      <c r="DG29" s="31"/>
+      <c r="DH29" s="31"/>
+      <c r="DI29" s="31"/>
+      <c r="DJ29" s="31"/>
+      <c r="DK29" s="31"/>
+      <c r="DL29" s="31"/>
+      <c r="DM29" s="31"/>
+      <c r="DN29" s="31"/>
+      <c r="DO29" s="31"/>
+      <c r="DP29" s="31"/>
+      <c r="DQ29" s="31"/>
+      <c r="DR29" s="31"/>
+      <c r="DS29" s="31"/>
+      <c r="DT29" s="31"/>
+      <c r="DU29" s="31"/>
+      <c r="DV29" s="31"/>
+      <c r="DW29" s="31"/>
+      <c r="DX29" s="31"/>
+      <c r="DY29" s="31"/>
+      <c r="DZ29" s="31"/>
+      <c r="EA29" s="31"/>
+      <c r="EB29" s="31"/>
+      <c r="EC29" s="31"/>
+      <c r="ED29" s="31"/>
+      <c r="EE29" s="31"/>
+      <c r="EF29" s="31"/>
+      <c r="EG29" s="31"/>
+      <c r="EH29" s="31"/>
+      <c r="EI29" s="31"/>
+      <c r="EJ29" s="31"/>
+      <c r="EK29" s="31"/>
+      <c r="EL29" s="31"/>
+      <c r="EM29" s="31"/>
+      <c r="EN29" s="31"/>
+      <c r="EO29" s="31"/>
+      <c r="EP29" s="31"/>
+      <c r="EQ29" s="31"/>
+      <c r="ER29" s="31"/>
+      <c r="ES29" s="31"/>
+      <c r="ET29" s="31"/>
+      <c r="EU29" s="31"/>
+      <c r="EV29" s="31"/>
+      <c r="EW29" s="31"/>
+      <c r="EX29" s="31"/>
+      <c r="EY29" s="31"/>
+      <c r="EZ29" s="31"/>
+      <c r="FA29" s="31"/>
+      <c r="FB29" s="31"/>
+      <c r="FC29" s="31"/>
+      <c r="FD29" s="31"/>
+      <c r="FE29" s="31"/>
+      <c r="FF29" s="31"/>
+      <c r="FG29" s="31"/>
+      <c r="FH29" s="31"/>
+      <c r="FI29" s="31"/>
+      <c r="FJ29" s="31"/>
+      <c r="FK29" s="31"/>
+      <c r="FL29" s="31"/>
+      <c r="FM29" s="31"/>
+      <c r="FN29" s="31"/>
+      <c r="FO29" s="31"/>
+      <c r="FP29" s="31"/>
+      <c r="FQ29" s="31"/>
+      <c r="FR29" s="31"/>
+      <c r="FS29" s="31"/>
+      <c r="FT29" s="31"/>
+      <c r="FU29" s="31"/>
+      <c r="FV29" s="31"/>
+      <c r="FW29" s="31"/>
+      <c r="FX29" s="31"/>
+      <c r="FY29" s="31"/>
+      <c r="FZ29" s="31"/>
+      <c r="GA29" s="31"/>
+      <c r="GB29" s="31"/>
+      <c r="GC29" s="31"/>
+      <c r="GD29" s="31"/>
+      <c r="GE29" s="31"/>
+      <c r="GF29" s="31"/>
+      <c r="GG29" s="31"/>
+      <c r="GH29" s="31"/>
+      <c r="GI29" s="31"/>
+      <c r="GJ29" s="31"/>
+      <c r="GK29" s="31"/>
+      <c r="GL29" s="31"/>
+      <c r="GM29" s="31"/>
+      <c r="GN29" s="31"/>
+      <c r="GO29" s="31"/>
+      <c r="GP29" s="31"/>
+      <c r="GQ29" s="31"/>
+      <c r="GR29" s="31"/>
+      <c r="GS29" s="31"/>
+      <c r="GT29" s="31"/>
+      <c r="GU29" s="31"/>
+      <c r="GV29" s="31"/>
+      <c r="GW29" s="31"/>
+      <c r="GX29" s="31"/>
+      <c r="GY29" s="31"/>
+      <c r="GZ29" s="31"/>
+      <c r="HA29" s="31"/>
+      <c r="HB29" s="31"/>
+      <c r="HC29" s="31"/>
+      <c r="HD29" s="31"/>
+      <c r="HE29" s="31"/>
+      <c r="HF29" s="31"/>
+      <c r="HG29" s="31"/>
+      <c r="HH29" s="31"/>
+      <c r="HI29" s="31"/>
+      <c r="HJ29" s="31"/>
+      <c r="HK29" s="31"/>
+      <c r="HL29" s="31"/>
+      <c r="HM29" s="31"/>
+      <c r="HN29" s="31"/>
+      <c r="HO29" s="31"/>
+      <c r="HP29" s="31"/>
+      <c r="HQ29" s="31"/>
+      <c r="HR29" s="31"/>
+      <c r="HS29" s="31"/>
+      <c r="HT29" s="31"/>
+      <c r="HU29" s="31"/>
+      <c r="HV29" s="31"/>
+      <c r="HW29" s="31"/>
+      <c r="HX29" s="31"/>
+      <c r="HY29" s="31"/>
+      <c r="HZ29" s="31"/>
+      <c r="IA29" s="31"/>
+      <c r="IB29" s="31"/>
+      <c r="IC29" s="31"/>
+      <c r="ID29" s="31"/>
+      <c r="IE29" s="31"/>
+      <c r="IF29" s="31"/>
+      <c r="IG29" s="31"/>
+      <c r="IH29" s="31"/>
+      <c r="II29" s="31"/>
+      <c r="IJ29" s="31"/>
+      <c r="IK29" s="31"/>
+      <c r="IL29" s="31"/>
+      <c r="IM29" s="31"/>
+      <c r="IN29" s="31"/>
+      <c r="IO29" s="31"/>
+      <c r="IP29" s="31"/>
+      <c r="IQ29" s="31"/>
+      <c r="IR29" s="31"/>
+      <c r="IS29" s="31"/>
+      <c r="IT29" s="31"/>
+      <c r="IU29" s="31"/>
+      <c r="IV29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2908,24 +6733,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="E9:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.1328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="12" customWidth="1"/>
     <col min="6" max="6" width="6.3984375" style="12" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="12" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2945,7 +6770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -2965,7 +6790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2985,121 +6810,421 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>30</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>20</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>30</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>40</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3112,24 +7237,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.3984375" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.3984375" style="16" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="16" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
@@ -3149,7 +7274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
@@ -3169,7 +7294,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
@@ -3181,7 +7306,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -3201,7 +7326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
@@ -3221,7 +7346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
@@ -3234,60 +7359,1132 @@
       <c r="D6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="39" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:256" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="31"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="31"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="31"/>
+      <c r="DR11" s="31"/>
+      <c r="DS11" s="31"/>
+      <c r="DT11" s="31"/>
+      <c r="DU11" s="31"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="31"/>
+      <c r="DZ11" s="31"/>
+      <c r="EA11" s="31"/>
+      <c r="EB11" s="31"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
+      <c r="EE11" s="31"/>
+      <c r="EF11" s="31"/>
+      <c r="EG11" s="31"/>
+      <c r="EH11" s="31"/>
+      <c r="EI11" s="31"/>
+      <c r="EJ11" s="31"/>
+      <c r="EK11" s="31"/>
+      <c r="EL11" s="31"/>
+      <c r="EM11" s="31"/>
+      <c r="EN11" s="31"/>
+      <c r="EO11" s="31"/>
+      <c r="EP11" s="31"/>
+      <c r="EQ11" s="31"/>
+      <c r="ER11" s="31"/>
+      <c r="ES11" s="31"/>
+      <c r="ET11" s="31"/>
+      <c r="EU11" s="31"/>
+      <c r="EV11" s="31"/>
+      <c r="EW11" s="31"/>
+      <c r="EX11" s="31"/>
+      <c r="EY11" s="31"/>
+      <c r="EZ11" s="31"/>
+      <c r="FA11" s="31"/>
+      <c r="FB11" s="31"/>
+      <c r="FC11" s="31"/>
+      <c r="FD11" s="31"/>
+      <c r="FE11" s="31"/>
+      <c r="FF11" s="31"/>
+      <c r="FG11" s="31"/>
+      <c r="FH11" s="31"/>
+      <c r="FI11" s="31"/>
+      <c r="FJ11" s="31"/>
+      <c r="FK11" s="31"/>
+      <c r="FL11" s="31"/>
+      <c r="FM11" s="31"/>
+      <c r="FN11" s="31"/>
+      <c r="FO11" s="31"/>
+      <c r="FP11" s="31"/>
+      <c r="FQ11" s="31"/>
+      <c r="FR11" s="31"/>
+      <c r="FS11" s="31"/>
+      <c r="FT11" s="31"/>
+      <c r="FU11" s="31"/>
+      <c r="FV11" s="31"/>
+      <c r="FW11" s="31"/>
+      <c r="FX11" s="31"/>
+      <c r="FY11" s="31"/>
+      <c r="FZ11" s="31"/>
+      <c r="GA11" s="31"/>
+      <c r="GB11" s="31"/>
+      <c r="GC11" s="31"/>
+      <c r="GD11" s="31"/>
+      <c r="GE11" s="31"/>
+      <c r="GF11" s="31"/>
+      <c r="GG11" s="31"/>
+      <c r="GH11" s="31"/>
+      <c r="GI11" s="31"/>
+      <c r="GJ11" s="31"/>
+      <c r="GK11" s="31"/>
+      <c r="GL11" s="31"/>
+      <c r="GM11" s="31"/>
+      <c r="GN11" s="31"/>
+      <c r="GO11" s="31"/>
+      <c r="GP11" s="31"/>
+      <c r="GQ11" s="31"/>
+      <c r="GR11" s="31"/>
+      <c r="GS11" s="31"/>
+      <c r="GT11" s="31"/>
+      <c r="GU11" s="31"/>
+      <c r="GV11" s="31"/>
+      <c r="GW11" s="31"/>
+      <c r="GX11" s="31"/>
+      <c r="GY11" s="31"/>
+      <c r="GZ11" s="31"/>
+      <c r="HA11" s="31"/>
+      <c r="HB11" s="31"/>
+      <c r="HC11" s="31"/>
+      <c r="HD11" s="31"/>
+      <c r="HE11" s="31"/>
+      <c r="HF11" s="31"/>
+      <c r="HG11" s="31"/>
+      <c r="HH11" s="31"/>
+      <c r="HI11" s="31"/>
+      <c r="HJ11" s="31"/>
+      <c r="HK11" s="31"/>
+      <c r="HL11" s="31"/>
+      <c r="HM11" s="31"/>
+      <c r="HN11" s="31"/>
+      <c r="HO11" s="31"/>
+      <c r="HP11" s="31"/>
+      <c r="HQ11" s="31"/>
+      <c r="HR11" s="31"/>
+      <c r="HS11" s="31"/>
+      <c r="HT11" s="31"/>
+      <c r="HU11" s="31"/>
+      <c r="HV11" s="31"/>
+      <c r="HW11" s="31"/>
+      <c r="HX11" s="31"/>
+      <c r="HY11" s="31"/>
+      <c r="HZ11" s="31"/>
+      <c r="IA11" s="31"/>
+      <c r="IB11" s="31"/>
+      <c r="IC11" s="31"/>
+      <c r="ID11" s="31"/>
+      <c r="IE11" s="31"/>
+      <c r="IF11" s="31"/>
+      <c r="IG11" s="31"/>
+      <c r="IH11" s="31"/>
+      <c r="II11" s="31"/>
+      <c r="IJ11" s="31"/>
+      <c r="IK11" s="31"/>
+      <c r="IL11" s="31"/>
+      <c r="IM11" s="31"/>
+      <c r="IN11" s="31"/>
+      <c r="IO11" s="31"/>
+      <c r="IP11" s="31"/>
+      <c r="IQ11" s="31"/>
+      <c r="IR11" s="31"/>
+      <c r="IS11" s="31"/>
+      <c r="IT11" s="31"/>
+      <c r="IU11" s="31"/>
+      <c r="IV11" s="31"/>
+    </row>
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="31"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="31"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="31"/>
+      <c r="DE12" s="31"/>
+      <c r="DF12" s="31"/>
+      <c r="DG12" s="31"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="31"/>
+      <c r="DK12" s="31"/>
+      <c r="DL12" s="31"/>
+      <c r="DM12" s="31"/>
+      <c r="DN12" s="31"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="31"/>
+      <c r="DR12" s="31"/>
+      <c r="DS12" s="31"/>
+      <c r="DT12" s="31"/>
+      <c r="DU12" s="31"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="31"/>
+      <c r="DZ12" s="31"/>
+      <c r="EA12" s="31"/>
+      <c r="EB12" s="31"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
+      <c r="EE12" s="31"/>
+      <c r="EF12" s="31"/>
+      <c r="EG12" s="31"/>
+      <c r="EH12" s="31"/>
+      <c r="EI12" s="31"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
+      <c r="EL12" s="31"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="31"/>
+      <c r="EO12" s="31"/>
+      <c r="EP12" s="31"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
+      <c r="ES12" s="31"/>
+      <c r="ET12" s="31"/>
+      <c r="EU12" s="31"/>
+      <c r="EV12" s="31"/>
+      <c r="EW12" s="31"/>
+      <c r="EX12" s="31"/>
+      <c r="EY12" s="31"/>
+      <c r="EZ12" s="31"/>
+      <c r="FA12" s="31"/>
+      <c r="FB12" s="31"/>
+      <c r="FC12" s="31"/>
+      <c r="FD12" s="31"/>
+      <c r="FE12" s="31"/>
+      <c r="FF12" s="31"/>
+      <c r="FG12" s="31"/>
+      <c r="FH12" s="31"/>
+      <c r="FI12" s="31"/>
+      <c r="FJ12" s="31"/>
+      <c r="FK12" s="31"/>
+      <c r="FL12" s="31"/>
+      <c r="FM12" s="31"/>
+      <c r="FN12" s="31"/>
+      <c r="FO12" s="31"/>
+      <c r="FP12" s="31"/>
+      <c r="FQ12" s="31"/>
+      <c r="FR12" s="31"/>
+      <c r="FS12" s="31"/>
+      <c r="FT12" s="31"/>
+      <c r="FU12" s="31"/>
+      <c r="FV12" s="31"/>
+      <c r="FW12" s="31"/>
+      <c r="FX12" s="31"/>
+      <c r="FY12" s="31"/>
+      <c r="FZ12" s="31"/>
+      <c r="GA12" s="31"/>
+      <c r="GB12" s="31"/>
+      <c r="GC12" s="31"/>
+      <c r="GD12" s="31"/>
+      <c r="GE12" s="31"/>
+      <c r="GF12" s="31"/>
+      <c r="GG12" s="31"/>
+      <c r="GH12" s="31"/>
+      <c r="GI12" s="31"/>
+      <c r="GJ12" s="31"/>
+      <c r="GK12" s="31"/>
+      <c r="GL12" s="31"/>
+      <c r="GM12" s="31"/>
+      <c r="GN12" s="31"/>
+      <c r="GO12" s="31"/>
+      <c r="GP12" s="31"/>
+      <c r="GQ12" s="31"/>
+      <c r="GR12" s="31"/>
+      <c r="GS12" s="31"/>
+      <c r="GT12" s="31"/>
+      <c r="GU12" s="31"/>
+      <c r="GV12" s="31"/>
+      <c r="GW12" s="31"/>
+      <c r="GX12" s="31"/>
+      <c r="GY12" s="31"/>
+      <c r="GZ12" s="31"/>
+      <c r="HA12" s="31"/>
+      <c r="HB12" s="31"/>
+      <c r="HC12" s="31"/>
+      <c r="HD12" s="31"/>
+      <c r="HE12" s="31"/>
+      <c r="HF12" s="31"/>
+      <c r="HG12" s="31"/>
+      <c r="HH12" s="31"/>
+      <c r="HI12" s="31"/>
+      <c r="HJ12" s="31"/>
+      <c r="HK12" s="31"/>
+      <c r="HL12" s="31"/>
+      <c r="HM12" s="31"/>
+      <c r="HN12" s="31"/>
+      <c r="HO12" s="31"/>
+      <c r="HP12" s="31"/>
+      <c r="HQ12" s="31"/>
+      <c r="HR12" s="31"/>
+      <c r="HS12" s="31"/>
+      <c r="HT12" s="31"/>
+      <c r="HU12" s="31"/>
+      <c r="HV12" s="31"/>
+      <c r="HW12" s="31"/>
+      <c r="HX12" s="31"/>
+      <c r="HY12" s="31"/>
+      <c r="HZ12" s="31"/>
+      <c r="IA12" s="31"/>
+      <c r="IB12" s="31"/>
+      <c r="IC12" s="31"/>
+      <c r="ID12" s="31"/>
+      <c r="IE12" s="31"/>
+      <c r="IF12" s="31"/>
+      <c r="IG12" s="31"/>
+      <c r="IH12" s="31"/>
+      <c r="II12" s="31"/>
+      <c r="IJ12" s="31"/>
+      <c r="IK12" s="31"/>
+      <c r="IL12" s="31"/>
+      <c r="IM12" s="31"/>
+      <c r="IN12" s="31"/>
+      <c r="IO12" s="31"/>
+      <c r="IP12" s="31"/>
+      <c r="IQ12" s="31"/>
+      <c r="IR12" s="31"/>
+      <c r="IS12" s="31"/>
+      <c r="IT12" s="31"/>
+      <c r="IU12" s="31"/>
+      <c r="IV12" s="31"/>
+    </row>
+    <row r="13" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="31"/>
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="31"/>
+      <c r="CJ13" s="31"/>
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="31"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="31"/>
+      <c r="CP13" s="31"/>
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="31"/>
+      <c r="CS13" s="31"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
+      <c r="CV13" s="31"/>
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="31"/>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="31"/>
+      <c r="DE13" s="31"/>
+      <c r="DF13" s="31"/>
+      <c r="DG13" s="31"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31"/>
+      <c r="DJ13" s="31"/>
+      <c r="DK13" s="31"/>
+      <c r="DL13" s="31"/>
+      <c r="DM13" s="31"/>
+      <c r="DN13" s="31"/>
+      <c r="DO13" s="31"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="31"/>
+      <c r="DR13" s="31"/>
+      <c r="DS13" s="31"/>
+      <c r="DT13" s="31"/>
+      <c r="DU13" s="31"/>
+      <c r="DV13" s="31"/>
+      <c r="DW13" s="31"/>
+      <c r="DX13" s="31"/>
+      <c r="DY13" s="31"/>
+      <c r="DZ13" s="31"/>
+      <c r="EA13" s="31"/>
+      <c r="EB13" s="31"/>
+      <c r="EC13" s="31"/>
+      <c r="ED13" s="31"/>
+      <c r="EE13" s="31"/>
+      <c r="EF13" s="31"/>
+      <c r="EG13" s="31"/>
+      <c r="EH13" s="31"/>
+      <c r="EI13" s="31"/>
+      <c r="EJ13" s="31"/>
+      <c r="EK13" s="31"/>
+      <c r="EL13" s="31"/>
+      <c r="EM13" s="31"/>
+      <c r="EN13" s="31"/>
+      <c r="EO13" s="31"/>
+      <c r="EP13" s="31"/>
+      <c r="EQ13" s="31"/>
+      <c r="ER13" s="31"/>
+      <c r="ES13" s="31"/>
+      <c r="ET13" s="31"/>
+      <c r="EU13" s="31"/>
+      <c r="EV13" s="31"/>
+      <c r="EW13" s="31"/>
+      <c r="EX13" s="31"/>
+      <c r="EY13" s="31"/>
+      <c r="EZ13" s="31"/>
+      <c r="FA13" s="31"/>
+      <c r="FB13" s="31"/>
+      <c r="FC13" s="31"/>
+      <c r="FD13" s="31"/>
+      <c r="FE13" s="31"/>
+      <c r="FF13" s="31"/>
+      <c r="FG13" s="31"/>
+      <c r="FH13" s="31"/>
+      <c r="FI13" s="31"/>
+      <c r="FJ13" s="31"/>
+      <c r="FK13" s="31"/>
+      <c r="FL13" s="31"/>
+      <c r="FM13" s="31"/>
+      <c r="FN13" s="31"/>
+      <c r="FO13" s="31"/>
+      <c r="FP13" s="31"/>
+      <c r="FQ13" s="31"/>
+      <c r="FR13" s="31"/>
+      <c r="FS13" s="31"/>
+      <c r="FT13" s="31"/>
+      <c r="FU13" s="31"/>
+      <c r="FV13" s="31"/>
+      <c r="FW13" s="31"/>
+      <c r="FX13" s="31"/>
+      <c r="FY13" s="31"/>
+      <c r="FZ13" s="31"/>
+      <c r="GA13" s="31"/>
+      <c r="GB13" s="31"/>
+      <c r="GC13" s="31"/>
+      <c r="GD13" s="31"/>
+      <c r="GE13" s="31"/>
+      <c r="GF13" s="31"/>
+      <c r="GG13" s="31"/>
+      <c r="GH13" s="31"/>
+      <c r="GI13" s="31"/>
+      <c r="GJ13" s="31"/>
+      <c r="GK13" s="31"/>
+      <c r="GL13" s="31"/>
+      <c r="GM13" s="31"/>
+      <c r="GN13" s="31"/>
+      <c r="GO13" s="31"/>
+      <c r="GP13" s="31"/>
+      <c r="GQ13" s="31"/>
+      <c r="GR13" s="31"/>
+      <c r="GS13" s="31"/>
+      <c r="GT13" s="31"/>
+      <c r="GU13" s="31"/>
+      <c r="GV13" s="31"/>
+      <c r="GW13" s="31"/>
+      <c r="GX13" s="31"/>
+      <c r="GY13" s="31"/>
+      <c r="GZ13" s="31"/>
+      <c r="HA13" s="31"/>
+      <c r="HB13" s="31"/>
+      <c r="HC13" s="31"/>
+      <c r="HD13" s="31"/>
+      <c r="HE13" s="31"/>
+      <c r="HF13" s="31"/>
+      <c r="HG13" s="31"/>
+      <c r="HH13" s="31"/>
+      <c r="HI13" s="31"/>
+      <c r="HJ13" s="31"/>
+      <c r="HK13" s="31"/>
+      <c r="HL13" s="31"/>
+      <c r="HM13" s="31"/>
+      <c r="HN13" s="31"/>
+      <c r="HO13" s="31"/>
+      <c r="HP13" s="31"/>
+      <c r="HQ13" s="31"/>
+      <c r="HR13" s="31"/>
+      <c r="HS13" s="31"/>
+      <c r="HT13" s="31"/>
+      <c r="HU13" s="31"/>
+      <c r="HV13" s="31"/>
+      <c r="HW13" s="31"/>
+      <c r="HX13" s="31"/>
+      <c r="HY13" s="31"/>
+      <c r="HZ13" s="31"/>
+      <c r="IA13" s="31"/>
+      <c r="IB13" s="31"/>
+      <c r="IC13" s="31"/>
+      <c r="ID13" s="31"/>
+      <c r="IE13" s="31"/>
+      <c r="IF13" s="31"/>
+      <c r="IG13" s="31"/>
+      <c r="IH13" s="31"/>
+      <c r="II13" s="31"/>
+      <c r="IJ13" s="31"/>
+      <c r="IK13" s="31"/>
+      <c r="IL13" s="31"/>
+      <c r="IM13" s="31"/>
+      <c r="IN13" s="31"/>
+      <c r="IO13" s="31"/>
+      <c r="IP13" s="31"/>
+      <c r="IQ13" s="31"/>
+      <c r="IR13" s="31"/>
+      <c r="IS13" s="31"/>
+      <c r="IT13" s="31"/>
+      <c r="IU13" s="31"/>
+      <c r="IV13" s="31"/>
+    </row>
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31"/>
+      <c r="CG14" s="31"/>
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="31"/>
+      <c r="CJ14" s="31"/>
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="31"/>
+      <c r="CM14" s="31"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="31"/>
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="31"/>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="31"/>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="31"/>
+      <c r="DJ14" s="31"/>
+      <c r="DK14" s="31"/>
+      <c r="DL14" s="31"/>
+      <c r="DM14" s="31"/>
+      <c r="DN14" s="31"/>
+      <c r="DO14" s="31"/>
+      <c r="DP14" s="31"/>
+      <c r="DQ14" s="31"/>
+      <c r="DR14" s="31"/>
+      <c r="DS14" s="31"/>
+      <c r="DT14" s="31"/>
+      <c r="DU14" s="31"/>
+      <c r="DV14" s="31"/>
+      <c r="DW14" s="31"/>
+      <c r="DX14" s="31"/>
+      <c r="DY14" s="31"/>
+      <c r="DZ14" s="31"/>
+      <c r="EA14" s="31"/>
+      <c r="EB14" s="31"/>
+      <c r="EC14" s="31"/>
+      <c r="ED14" s="31"/>
+      <c r="EE14" s="31"/>
+      <c r="EF14" s="31"/>
+      <c r="EG14" s="31"/>
+      <c r="EH14" s="31"/>
+      <c r="EI14" s="31"/>
+      <c r="EJ14" s="31"/>
+      <c r="EK14" s="31"/>
+      <c r="EL14" s="31"/>
+      <c r="EM14" s="31"/>
+      <c r="EN14" s="31"/>
+      <c r="EO14" s="31"/>
+      <c r="EP14" s="31"/>
+      <c r="EQ14" s="31"/>
+      <c r="ER14" s="31"/>
+      <c r="ES14" s="31"/>
+      <c r="ET14" s="31"/>
+      <c r="EU14" s="31"/>
+      <c r="EV14" s="31"/>
+      <c r="EW14" s="31"/>
+      <c r="EX14" s="31"/>
+      <c r="EY14" s="31"/>
+      <c r="EZ14" s="31"/>
+      <c r="FA14" s="31"/>
+      <c r="FB14" s="31"/>
+      <c r="FC14" s="31"/>
+      <c r="FD14" s="31"/>
+      <c r="FE14" s="31"/>
+      <c r="FF14" s="31"/>
+      <c r="FG14" s="31"/>
+      <c r="FH14" s="31"/>
+      <c r="FI14" s="31"/>
+      <c r="FJ14" s="31"/>
+      <c r="FK14" s="31"/>
+      <c r="FL14" s="31"/>
+      <c r="FM14" s="31"/>
+      <c r="FN14" s="31"/>
+      <c r="FO14" s="31"/>
+      <c r="FP14" s="31"/>
+      <c r="FQ14" s="31"/>
+      <c r="FR14" s="31"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="31"/>
+      <c r="FU14" s="31"/>
+      <c r="FV14" s="31"/>
+      <c r="FW14" s="31"/>
+      <c r="FX14" s="31"/>
+      <c r="FY14" s="31"/>
+      <c r="FZ14" s="31"/>
+      <c r="GA14" s="31"/>
+      <c r="GB14" s="31"/>
+      <c r="GC14" s="31"/>
+      <c r="GD14" s="31"/>
+      <c r="GE14" s="31"/>
+      <c r="GF14" s="31"/>
+      <c r="GG14" s="31"/>
+      <c r="GH14" s="31"/>
+      <c r="GI14" s="31"/>
+      <c r="GJ14" s="31"/>
+      <c r="GK14" s="31"/>
+      <c r="GL14" s="31"/>
+      <c r="GM14" s="31"/>
+      <c r="GN14" s="31"/>
+      <c r="GO14" s="31"/>
+      <c r="GP14" s="31"/>
+      <c r="GQ14" s="31"/>
+      <c r="GR14" s="31"/>
+      <c r="GS14" s="31"/>
+      <c r="GT14" s="31"/>
+      <c r="GU14" s="31"/>
+      <c r="GV14" s="31"/>
+      <c r="GW14" s="31"/>
+      <c r="GX14" s="31"/>
+      <c r="GY14" s="31"/>
+      <c r="GZ14" s="31"/>
+      <c r="HA14" s="31"/>
+      <c r="HB14" s="31"/>
+      <c r="HC14" s="31"/>
+      <c r="HD14" s="31"/>
+      <c r="HE14" s="31"/>
+      <c r="HF14" s="31"/>
+      <c r="HG14" s="31"/>
+      <c r="HH14" s="31"/>
+      <c r="HI14" s="31"/>
+      <c r="HJ14" s="31"/>
+      <c r="HK14" s="31"/>
+      <c r="HL14" s="31"/>
+      <c r="HM14" s="31"/>
+      <c r="HN14" s="31"/>
+      <c r="HO14" s="31"/>
+      <c r="HP14" s="31"/>
+      <c r="HQ14" s="31"/>
+      <c r="HR14" s="31"/>
+      <c r="HS14" s="31"/>
+      <c r="HT14" s="31"/>
+      <c r="HU14" s="31"/>
+      <c r="HV14" s="31"/>
+      <c r="HW14" s="31"/>
+      <c r="HX14" s="31"/>
+      <c r="HY14" s="31"/>
+      <c r="HZ14" s="31"/>
+      <c r="IA14" s="31"/>
+      <c r="IB14" s="31"/>
+      <c r="IC14" s="31"/>
+      <c r="ID14" s="31"/>
+      <c r="IE14" s="31"/>
+      <c r="IF14" s="31"/>
+      <c r="IG14" s="31"/>
+      <c r="IH14" s="31"/>
+      <c r="II14" s="31"/>
+      <c r="IJ14" s="31"/>
+      <c r="IK14" s="31"/>
+      <c r="IL14" s="31"/>
+      <c r="IM14" s="31"/>
+      <c r="IN14" s="31"/>
+      <c r="IO14" s="31"/>
+      <c r="IP14" s="31"/>
+      <c r="IQ14" s="31"/>
+      <c r="IR14" s="31"/>
+      <c r="IS14" s="31"/>
+      <c r="IT14" s="31"/>
+      <c r="IU14" s="31"/>
+      <c r="IV14" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3302,20 +8499,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="24" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.3984375" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.1328125" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -3335,7 +8534,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>40590</v>
       </c>
@@ -3349,7 +8548,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>40604</v>
       </c>
@@ -3371,34 +8570,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>40625</v>
       </c>
       <c r="B4" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
         <f>B3-B4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25" t="e">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUM(Sprint2!H2:H10)</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUM(Sprint2!I2:I10)</f>
+        <v>255</v>
+      </c>
+      <c r="F4" s="25">
         <f>(D4-D3)/E4*60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29.882352941176471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>40639</v>
       </c>
       <c r="B5" s="6">
-        <v>24</v>
+        <f>B4</f>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <f>B4-B5</f>
@@ -3415,12 +8617,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>40653</v>
       </c>
       <c r="B6" s="6">
-        <v>24</v>
+        <f t="shared" ref="B6:B7" si="0">B5</f>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
         <f>B5-B6</f>
@@ -3437,12 +8640,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>40667</v>
       </c>
       <c r="B7" s="6">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <f>B6-B7</f>
@@ -3459,7 +8663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3467,7 +8671,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3475,7 +8679,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3497,26 +8701,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="26" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="26" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="26" customWidth="1"/>
     <col min="7" max="7" width="5.59765625" style="26" customWidth="1"/>
     <col min="8" max="8" width="5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="5.73046875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="26" customWidth="1"/>
     <col min="10" max="10" width="8" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.1328125" style="26" customWidth="1"/>
+    <col min="11" max="256" width="8.09765625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3548,7 +8752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
@@ -3580,7 +8784,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -3610,7 +8814,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -3640,7 +8844,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -3672,7 +8876,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -3702,7 +8906,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3714,7 +8918,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3726,7 +8930,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3738,7 +8942,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3750,7 +8954,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3762,7 +8966,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3774,7 +8978,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3786,7 +8990,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
         <v>91</v>
@@ -3800,7 +9004,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="27"/>
       <c r="C15" s="15"/>
@@ -3812,7 +9016,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="13" t="s">
         <v>92</v>
@@ -3826,7 +9030,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="14" t="s">
         <v>93</v>
@@ -3840,7 +9044,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="14" t="s">
         <v>94</v>
@@ -3854,7 +9058,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3866,7 +9070,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="13" t="s">
         <v>95</v>
@@ -3880,7 +9084,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="14" t="s">
         <v>96</v>
@@ -3908,15 +9112,17 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3948,7 +9154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +9186,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4010,31 +9216,67 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>120</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4046,7 +9288,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4058,7 +9300,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4070,7 +9312,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4082,7 +9324,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4109,12 +9351,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="29" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -4146,7 +9388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4158,7 +9400,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4170,7 +9412,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4182,7 +9424,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4194,7 +9436,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4206,7 +9448,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4218,7 +9460,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4230,7 +9472,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4242,7 +9484,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4269,12 +9511,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.1328125" style="30" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -4306,7 +9548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4318,7 +9560,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4330,7 +9572,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4342,7 +9584,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4354,7 +9596,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4366,7 +9608,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4378,7 +9620,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4390,7 +9632,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4402,7 +9644,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
